--- a/Wycena/Raporty/Raport kosztów.xlsx
+++ b/Wycena/Raporty/Raport kosztów.xlsx
@@ -7,7 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rzeczywiste koszty" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Szczegółowa kalkulacja" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Podsumowanie" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Wykresy i Analiza" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Statystyki materiałów" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,7 +20,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="6">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -25,13 +28,44 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+    </font>
+    <font>
+      <b val="1"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00008000"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00366092"/>
+        <bgColor rgb="00366092"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D9D9D9"/>
+        <bgColor rgb="00D9D9D9"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -46,8 +80,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -124,16 +170,189 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Rozkład kosztów zlecenia</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <pieChart>
+        <varyColors val="1"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Wykresy i Analiza'!B3</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Wykresy i Analiza'!$A$4:$A$12</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Wykresy i Analiza'!$B$4:$B$12</f>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showPercent val="1"/>
+        </dLbls>
+        <firstSliceAng val="0"/>
+      </pieChart>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="10"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Składniki kosztów [PLN]</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Wykresy i Analiza'!B3</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Wykresy i Analiza'!$A$4:$A$12</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Wykresy i Analiza'!$B$4:$B$12</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Składnik</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Wartość [PLN]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>9</col>
+      <col>24</col>
       <colOff>0</colOff>
       <row>1</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="9525" cy="9525"/>
+    <ext cx="571500" cy="381000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -153,12 +372,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>9</col>
+      <col>24</col>
       <colOff>0</colOff>
       <row>2</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="9525" cy="9525"/>
+    <ext cx="571500" cy="381000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="2" name="Image 2" descr="Picture"/>
@@ -178,12 +397,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>9</col>
+      <col>24</col>
       <colOff>0</colOff>
       <row>3</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="9525" cy="9525"/>
+    <ext cx="571500" cy="381000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="3" name="Image 3" descr="Picture"/>
@@ -203,12 +422,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>9</col>
+      <col>24</col>
       <colOff>0</colOff>
       <row>4</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="9525" cy="9525"/>
+    <ext cx="571500" cy="381000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="4" name="Image 4" descr="Picture"/>
@@ -228,12 +447,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>9</col>
+      <col>24</col>
       <colOff>0</colOff>
       <row>5</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="9525" cy="9525"/>
+    <ext cx="571500" cy="381000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="5" name="Image 5" descr="Picture"/>
@@ -253,12 +472,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>9</col>
+      <col>24</col>
       <colOff>0</colOff>
       <row>6</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="9525" cy="9525"/>
+    <ext cx="571500" cy="381000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="6" name="Image 6" descr="Picture"/>
@@ -278,12 +497,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>9</col>
+      <col>24</col>
       <colOff>0</colOff>
       <row>7</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="9525" cy="9525"/>
+    <ext cx="571500" cy="381000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="7" name="Image 7" descr="Picture"/>
@@ -303,12 +522,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>9</col>
+      <col>24</col>
       <colOff>0</colOff>
       <row>8</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="9525" cy="9525"/>
+    <ext cx="571500" cy="381000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="8" name="Image 8" descr="Picture"/>
@@ -328,12 +547,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>9</col>
+      <col>24</col>
       <colOff>0</colOff>
       <row>9</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="9525" cy="9525"/>
+    <ext cx="571500" cy="381000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="9" name="Image 9" descr="Picture"/>
@@ -353,12 +572,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>9</col>
+      <col>24</col>
       <colOff>0</colOff>
       <row>10</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="9525" cy="9525"/>
+    <ext cx="571500" cy="381000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="10" name="Image 10" descr="Picture"/>
@@ -378,12 +597,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>9</col>
+      <col>24</col>
       <colOff>0</colOff>
       <row>11</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="9525" cy="9525"/>
+    <ext cx="571500" cy="381000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="11" name="Image 11" descr="Picture"/>
@@ -403,12 +622,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>9</col>
+      <col>24</col>
       <colOff>0</colOff>
       <row>12</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="9525" cy="9525"/>
+    <ext cx="571500" cy="381000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="12" name="Image 12" descr="Picture"/>
@@ -428,12 +647,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>9</col>
+      <col>24</col>
       <colOff>0</colOff>
       <row>13</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="9525" cy="9525"/>
+    <ext cx="571500" cy="381000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="13" name="Image 13" descr="Picture"/>
@@ -453,12 +672,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>9</col>
+      <col>24</col>
       <colOff>0</colOff>
       <row>14</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="9525" cy="9525"/>
+    <ext cx="571500" cy="381000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="14" name="Image 14" descr="Picture"/>
@@ -478,12 +697,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>9</col>
+      <col>24</col>
       <colOff>0</colOff>
       <row>15</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="9525" cy="9525"/>
+    <ext cx="571500" cy="381000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="15" name="Image 15" descr="Picture"/>
@@ -503,12 +722,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>9</col>
+      <col>24</col>
       <colOff>0</colOff>
       <row>16</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="9525" cy="9525"/>
+    <ext cx="571500" cy="381000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="16" name="Image 16" descr="Picture"/>
@@ -528,12 +747,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>9</col>
+      <col>24</col>
       <colOff>0</colOff>
       <row>17</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="9525" cy="9525"/>
+    <ext cx="571500" cy="381000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="17" name="Image 17" descr="Picture"/>
@@ -553,12 +772,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>9</col>
+      <col>24</col>
       <colOff>0</colOff>
       <row>18</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="9525" cy="9525"/>
+    <ext cx="571500" cy="381000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="18" name="Image 18" descr="Picture"/>
@@ -578,12 +797,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>9</col>
+      <col>24</col>
       <colOff>0</colOff>
       <row>19</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="9525" cy="9525"/>
+    <ext cx="571500" cy="381000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="19" name="Image 19" descr="Picture"/>
@@ -603,12 +822,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>9</col>
+      <col>24</col>
       <colOff>0</colOff>
       <row>20</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="9525" cy="9525"/>
+    <ext cx="571500" cy="381000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="20" name="Image 20" descr="Picture"/>
@@ -628,12 +847,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>9</col>
+      <col>24</col>
       <colOff>0</colOff>
       <row>21</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="9525" cy="9525"/>
+    <ext cx="571500" cy="381000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="21" name="Image 21" descr="Picture"/>
@@ -653,12 +872,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>9</col>
+      <col>24</col>
       <colOff>0</colOff>
       <row>22</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="9525" cy="9525"/>
+    <ext cx="571500" cy="381000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="22" name="Image 22" descr="Picture"/>
@@ -678,12 +897,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>9</col>
+      <col>24</col>
       <colOff>0</colOff>
       <row>23</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="9525" cy="9525"/>
+    <ext cx="571500" cy="381000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="23" name="Image 23" descr="Picture"/>
@@ -703,12 +922,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>9</col>
+      <col>24</col>
       <colOff>0</colOff>
       <row>24</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="9525" cy="9525"/>
+    <ext cx="571500" cy="381000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="24" name="Image 24" descr="Picture"/>
@@ -728,12 +947,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>9</col>
+      <col>24</col>
       <colOff>0</colOff>
       <row>25</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="9525" cy="9525"/>
+    <ext cx="571500" cy="381000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="25" name="Image 25" descr="Picture"/>
@@ -753,12 +972,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>9</col>
+      <col>24</col>
       <colOff>0</colOff>
       <row>26</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="9525" cy="9525"/>
+    <ext cx="571500" cy="381000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="26" name="Image 26" descr="Picture"/>
@@ -778,12 +997,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>9</col>
+      <col>24</col>
       <colOff>0</colOff>
       <row>27</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="9525" cy="9525"/>
+    <ext cx="571500" cy="381000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="27" name="Image 27" descr="Picture"/>
@@ -803,12 +1022,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>9</col>
+      <col>24</col>
       <colOff>0</colOff>
       <row>28</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="9525" cy="9525"/>
+    <ext cx="571500" cy="381000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="28" name="Image 28" descr="Picture"/>
@@ -828,12 +1047,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>9</col>
+      <col>24</col>
       <colOff>0</colOff>
       <row>29</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="9525" cy="9525"/>
+    <ext cx="571500" cy="381000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="29" name="Image 29" descr="Picture"/>
@@ -853,12 +1072,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>9</col>
+      <col>24</col>
       <colOff>0</colOff>
       <row>30</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="9525" cy="9525"/>
+    <ext cx="571500" cy="381000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="30" name="Image 30" descr="Picture"/>
@@ -878,12 +1097,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>9</col>
+      <col>24</col>
       <colOff>0</colOff>
       <row>31</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="9525" cy="9525"/>
+    <ext cx="571500" cy="381000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="31" name="Image 31" descr="Picture"/>
@@ -903,12 +1122,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>9</col>
+      <col>24</col>
       <colOff>0</colOff>
       <row>32</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="9525" cy="9525"/>
+    <ext cx="571500" cy="381000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="32" name="Image 32" descr="Picture"/>
@@ -928,12 +1147,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>9</col>
+      <col>24</col>
       <colOff>0</colOff>
       <row>33</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="9525" cy="9525"/>
+    <ext cx="571500" cy="381000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="33" name="Image 33" descr="Picture"/>
@@ -949,6 +1168,55 @@
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4320000" cy="2880000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>14</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5040000" cy="2880000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="2" name="Chart 2"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
     <clientData/>
   </oneCellAnchor>
 </wsDr>
@@ -1243,7 +1511,3949 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:X35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="4" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="13" customWidth="1" min="5" max="5"/>
+    <col width="23" customWidth="1" min="6" max="6"/>
+    <col width="23" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="16" customWidth="1" min="9" max="9"/>
+    <col width="24" customWidth="1" min="10" max="10"/>
+    <col width="26" customWidth="1" min="11" max="11"/>
+    <col width="25" customWidth="1" min="12" max="12"/>
+    <col width="23" customWidth="1" min="13" max="13"/>
+    <col width="23" customWidth="1" min="14" max="14"/>
+    <col width="20" customWidth="1" min="15" max="15"/>
+    <col width="22" customWidth="1" min="16" max="16"/>
+    <col width="24" customWidth="1" min="17" max="17"/>
+    <col width="26" customWidth="1" min="18" max="18"/>
+    <col width="24" customWidth="1" min="19" max="19"/>
+    <col width="25" customWidth="1" min="20" max="20"/>
+    <col width="18" customWidth="1" min="21" max="21"/>
+    <col width="24" customWidth="1" min="22" max="22"/>
+    <col width="25" customWidth="1" min="23" max="23"/>
+    <col width="23" customWidth="1" min="24" max="24"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Nazwa części</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Materiał</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Grubość [mm]</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Ilość [szt]</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Waga jednostkowa [kg]</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Waga skorygowana [kg]</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Długość cięcia [m]</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Ilość konturów</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Długość znakowania [m]</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Długość odfoliowania [m]</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Cena materiału [PLN/kg]</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Stawka cięcia [PLN/m]</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Koszt materiału [PLN]</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Koszt cięcia [PLN]</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Koszt konturów [PLN]</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Koszt znakowania [PLN]</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Koszt odfoliowania [PLN]</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Koszt operacyjny [PLN]</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Koszt technologii [PLN]</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Gięcie 75% [PLN]</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Koszty dodatkowe [PLN]</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Koszt jednostkowy [PLN]</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Koszt całkowity [PLN]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="45" customHeight="1">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Rew001_SO-B32-001_SRODEK_I_2500</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>S235</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>48</v>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>5.680</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>7.897</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="M2" s="2" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="N2" s="2" t="inlineStr">
+        <is>
+          <t>28.43</t>
+        </is>
+      </c>
+      <c r="O2" s="2" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="P2" s="2" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="Q2" s="2" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S2" s="2" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="T2" s="2" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="U2" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="V2" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="W2" s="2" t="inlineStr">
+        <is>
+          <t>34.91</t>
+        </is>
+      </c>
+      <c r="X2" s="2" t="inlineStr">
+        <is>
+          <t>1675.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="45" customHeight="1">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Rew001_SO-036-002_KANAL_SCIANA_OKNO_ZASLEPKA</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>S235</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E3" t="n">
+        <v>48</v>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>0.480</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>0.667</t>
+        </is>
+      </c>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="J3" s="2" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="K3" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="L3" s="2" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="M3" s="2" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="N3" s="2" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="O3" s="2" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="P3" s="2" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="Q3" s="2" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="R3" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S3" s="2" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="T3" s="2" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="U3" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="V3" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="W3" s="2" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="X3" s="2" t="inlineStr">
+        <is>
+          <t>315.21</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="45" customHeight="1">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Rew001_SO-G68-001_FIBER_DNO_2520</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>S235</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>25.790</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>35.854</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>129.08</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>146.25</t>
+        </is>
+      </c>
+      <c r="X4" s="2" t="inlineStr">
+        <is>
+          <t>1754.96</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="45" customHeight="1">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Rew001_SO-H16-001_FIBER_BOK_Z_OKNAMI_2000_PALETA</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>S235</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>4.830</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>7.951</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>12.80</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>28.62</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>14.22</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>51.46</t>
+        </is>
+      </c>
+      <c r="X5" s="2" t="inlineStr">
+        <is>
+          <t>617.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="45" customHeight="1">
+      <c r="A6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Rew003_SO-031-001_BOK_OKNO_ZASLEPKA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>S235</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>48</v>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1.280</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>2.107</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>12.61</t>
+        </is>
+      </c>
+      <c r="X6" s="2" t="inlineStr">
+        <is>
+          <t>605.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="45" customHeight="1">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Rew001_SO-G95-001_FIBER_GRZEBIEN_PAL_2520</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>S235</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>10</v>
+      </c>
+      <c r="E7" t="n">
+        <v>36</v>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>12.220</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>15.563</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>56.03</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>23.65</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>82.99</t>
+        </is>
+      </c>
+      <c r="X7" s="2" t="inlineStr">
+        <is>
+          <t>2987.74</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="45" customHeight="1">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Rew001_SO-G81-001_FIBER_PAL_RAMA_POZYCJONER_Y_II</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>S235</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>10</v>
+      </c>
+      <c r="E8" t="n">
+        <v>24</v>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>0.370</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0.471</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="X8" s="2" t="inlineStr">
+        <is>
+          <t>137.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="45" customHeight="1">
+      <c r="A9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Rew001_SO-G72-001_FIBER_PAL_RAMA_GRZEB_BOK</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>S235</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>10</v>
+      </c>
+      <c r="E9" t="n">
+        <v>12</v>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>40.730</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>51.872</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>13.40</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>186.74</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>53.17</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>247.63</t>
+        </is>
+      </c>
+      <c r="X9" s="2" t="inlineStr">
+        <is>
+          <t>2971.56</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="45" customHeight="1">
+      <c r="A10" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Rew001_SO-G77-001_FIBER_PAL_NOGA_SRODKOWA</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>S235</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>10</v>
+      </c>
+      <c r="E10" t="n">
+        <v>12</v>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0.770</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.981</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="X10" s="2" t="inlineStr">
+        <is>
+          <t>106.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="45" customHeight="1">
+      <c r="A11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Rew001_SO-G75-002_FIBER_PAL_RAMA_POZ_Y_HAK</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>S235</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="n">
+        <v>24</v>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>1.200</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1.528</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>11.89</t>
+        </is>
+      </c>
+      <c r="X11" s="2" t="inlineStr">
+        <is>
+          <t>285.33</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="45" customHeight="1">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Rew004_SO-539-002_KANAL_PALETA</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>S235</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>3</v>
+      </c>
+      <c r="E12" t="n">
+        <v>24</v>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>26.220</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>34.360</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>19.29</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>123.70</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>43.28</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>176.01</t>
+        </is>
+      </c>
+      <c r="X12" s="2" t="inlineStr">
+        <is>
+          <t>4224.26</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="45" customHeight="1">
+      <c r="A13" t="n">
+        <v>2</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Rew001_SO-G69-001_FIBER_WANNA_2520</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>S235</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" t="n">
+        <v>24</v>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>51.500</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>67.488</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>18.32</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>242.96</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>41.10</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>291.10</t>
+        </is>
+      </c>
+      <c r="X13" s="2" t="inlineStr">
+        <is>
+          <t>6986.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="45" customHeight="1">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Rew001_SO-G76-001_FIBER_PAL_2520_ZAMK_CZOL</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>S235</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>9.500</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>12.449</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>44.82</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>13.10</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>60.56</t>
+        </is>
+      </c>
+      <c r="X14" s="2" t="inlineStr">
+        <is>
+          <t>121.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="45" customHeight="1">
+      <c r="A15" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Rew002_SO-413-001_MOCOWANIE_SILOWNIKA</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>S235</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" t="n">
+        <v>48</v>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0.080</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0.105</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="X15" s="2" t="inlineStr">
+        <is>
+          <t>250.03</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="45" customHeight="1">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Rew001_SO-H09-001_FIBER_PAL_OSL_GRZEB_BOK</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>S235</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E16" t="n">
+        <v>12</v>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>7.970</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>10.444</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>37.60</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>11.67</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>51.90</t>
+        </is>
+      </c>
+      <c r="X16" s="2" t="inlineStr">
+        <is>
+          <t>622.83</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="45" customHeight="1">
+      <c r="A17" t="n">
+        <v>6</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Rew001_SO-H07-001_FIBER_PAL_DOSZCZ_GORNE</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>S235</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" t="n">
+        <v>24</v>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1.860</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>2.437</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>17.78</t>
+        </is>
+      </c>
+      <c r="X17" s="2" t="inlineStr">
+        <is>
+          <t>426.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="45" customHeight="1">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Rew001_SO-G93-001_FIBER_MOC_DASZKA_SRODEK_PAL</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>S235</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>5</v>
+      </c>
+      <c r="E18" t="n">
+        <v>144</v>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0.240</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0.285</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="X18" s="2" t="inlineStr">
+        <is>
+          <t>734.54</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="45" customHeight="1">
+      <c r="A19" t="n">
+        <v>2</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Rew001_SO-H15-001_FIBER_PAL_2520_DNO_WANNY_5</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>S235</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>5</v>
+      </c>
+      <c r="E19" t="n">
+        <v>48</v>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>8.490</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>10.087</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>36.31</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="U19" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="V19" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="W19" s="2" t="inlineStr">
+        <is>
+          <t>44.90</t>
+        </is>
+      </c>
+      <c r="X19" s="2" t="inlineStr">
+        <is>
+          <t>2155.18</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="45" customHeight="1">
+      <c r="A20" t="n">
+        <v>3</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Rew001_SO-H04-001_FIBER_PAL_MOC_DASZKA_BOK_GNIAZDO</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>S235</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>5</v>
+      </c>
+      <c r="E20" t="n">
+        <v>96</v>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0.030</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0.036</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="U20" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="V20" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="W20" s="2" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="X20" s="2" t="inlineStr">
+        <is>
+          <t>322.55</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="45" customHeight="1">
+      <c r="A21" t="n">
+        <v>4</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Rew001_SO-G88-001_FIBER_RUSZT_PAL_2520_ZAMAWIAC_POLOWE</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>S235</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>5</v>
+      </c>
+      <c r="E21" t="n">
+        <v>168</v>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>7.420</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>8.815</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>31.74</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>12.82</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="U21" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="V21" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="W21" s="2" t="inlineStr">
+        <is>
+          <t>47.27</t>
+        </is>
+      </c>
+      <c r="X21" s="2" t="inlineStr">
+        <is>
+          <t>7941.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="45" customHeight="1">
+      <c r="A22" t="n">
+        <v>5</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Rew001_SO-274-002_PROWADNICA_WIDEL_DLUGA</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>S235</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>5</v>
+      </c>
+      <c r="E22" t="n">
+        <v>24</v>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>7.710</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>9.160</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>32.98</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="U22" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="V22" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="W22" s="2" t="inlineStr">
+        <is>
+          <t>47.63</t>
+        </is>
+      </c>
+      <c r="X22" s="2" t="inlineStr">
+        <is>
+          <t>1143.21</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="45" customHeight="1">
+      <c r="A23" t="n">
+        <v>6</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Rew001_SO-H02-001_FIBER_PAL_MOC_DASZKA_BOK_HAK</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>S235</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>5</v>
+      </c>
+      <c r="E23" t="n">
+        <v>96</v>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>0.130</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>0.154</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="U23" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="V23" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="W23" s="2" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="X23" s="2" t="inlineStr">
+        <is>
+          <t>412.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="45" customHeight="1">
+      <c r="A24" t="n">
+        <v>7</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Rew001_SO-F18-001_WZM_NOGI</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>S235</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>5</v>
+      </c>
+      <c r="E24" t="n">
+        <v>24</v>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>0.230</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>0.273</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="U24" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="V24" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="W24" s="2" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="X24" s="2" t="inlineStr">
+        <is>
+          <t>118.26</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="45" customHeight="1">
+      <c r="A25" t="n">
+        <v>8</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Rew001_SO-G82-001_FIBER_PAL_ZASLEPKA_WZM_BOKU</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>S235</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>5</v>
+      </c>
+      <c r="E25" t="n">
+        <v>24</v>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>0.400</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>0.475</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S25" s="2" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="T25" s="2" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="U25" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="V25" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="W25" s="2" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="X25" s="2" t="inlineStr">
+        <is>
+          <t>147.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="45" customHeight="1">
+      <c r="A26" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Rew001_SO-G97-001_FIBER_PAL_BAZA_MOC_GRZEB_BOK</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>S235</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>8</v>
+      </c>
+      <c r="E26" t="n">
+        <v>36</v>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>0.180</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>0.201</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S26" s="2" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="T26" s="2" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="U26" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="V26" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="W26" s="2" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="X26" s="2" t="inlineStr">
+        <is>
+          <t>130.54</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="45" customHeight="1">
+      <c r="A27" t="n">
+        <v>2</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Rew001_SO-H04-001_FIBER_PAL_2520_DASZEK_BOK_619</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>S235</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>8</v>
+      </c>
+      <c r="E27" t="n">
+        <v>24</v>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>9.120</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>10.188</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>36.68</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S27" s="2" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="T27" s="2" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="U27" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="V27" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="W27" s="2" t="inlineStr">
+        <is>
+          <t>39.79</t>
+        </is>
+      </c>
+      <c r="X27" s="2" t="inlineStr">
+        <is>
+          <t>954.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="45" customHeight="1">
+      <c r="A28" t="n">
+        <v>3</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Rew001_SO-H14-001_FIBER_DASZEK_TRAPEZ_PAL</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>S235</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>8</v>
+      </c>
+      <c r="E28" t="n">
+        <v>48</v>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>9.570</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>10.690</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>38.49</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="R28" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S28" s="2" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="T28" s="2" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="U28" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="V28" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="W28" s="2" t="inlineStr">
+        <is>
+          <t>41.20</t>
+        </is>
+      </c>
+      <c r="X28" s="2" t="inlineStr">
+        <is>
+          <t>1977.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="45" customHeight="1">
+      <c r="A29" t="n">
+        <v>4</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Rew001_SO-H08-001_FIBER_PAL_WANNA_WZMOC</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>S235</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>8</v>
+      </c>
+      <c r="E29" t="n">
+        <v>72</v>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>1.700</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>1.899</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="R29" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S29" s="2" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="T29" s="2" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="U29" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="V29" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="W29" s="2" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="X29" s="2" t="inlineStr">
+        <is>
+          <t>702.14</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="45" customHeight="1">
+      <c r="A30" t="n">
+        <v>5</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Rew001_SO-G98-001_FIBER_PAL_BAZA_POZ_Y</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>S235</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>8</v>
+      </c>
+      <c r="E30" t="n">
+        <v>12</v>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>0.150</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>0.168</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="R30" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S30" s="2" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="T30" s="2" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="U30" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="V30" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="W30" s="2" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="X30" s="2" t="inlineStr">
+        <is>
+          <t>41.03</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="45" customHeight="1">
+      <c r="A31" t="n">
+        <v>6</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Rew001_SO-G99-001_FIBER_PAL_2520_DASZEK_619</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>S235</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>8</v>
+      </c>
+      <c r="E31" t="n">
+        <v>36</v>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>15.680</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>17.516</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>63.06</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="R31" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S31" s="2" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="T31" s="2" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="U31" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="V31" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="W31" s="2" t="inlineStr">
+        <is>
+          <t>66.17</t>
+        </is>
+      </c>
+      <c r="X31" s="2" t="inlineStr">
+        <is>
+          <t>2382.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="45" customHeight="1">
+      <c r="A32" t="n">
+        <v>7</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Rew001_SO-H03-001_FIBER_PAL_2520_DASZEK_BOK_L_P</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>S235</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>8</v>
+      </c>
+      <c r="E32" t="n">
+        <v>24</v>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>9.130</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>10.199</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>36.72</t>
+        </is>
+      </c>
+      <c r="O32" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="P32" s="2" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="Q32" s="2" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="R32" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S32" s="2" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="T32" s="2" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="U32" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="V32" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="W32" s="2" t="inlineStr">
+        <is>
+          <t>39.83</t>
+        </is>
+      </c>
+      <c r="X32" s="2" t="inlineStr">
+        <is>
+          <t>955.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="45" customHeight="1">
+      <c r="A33" t="n">
+        <v>8</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Rew001_SO-H05-001_PAL_2520FIB_DASZEK_650</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>S235</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>8</v>
+      </c>
+      <c r="E33" t="n">
+        <v>36</v>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>15.510</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>17.326</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>62.37</t>
+        </is>
+      </c>
+      <c r="O33" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="P33" s="2" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="Q33" s="2" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="R33" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S33" s="2" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="T33" s="2" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="U33" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="V33" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="W33" s="2" t="inlineStr">
+        <is>
+          <t>65.49</t>
+        </is>
+      </c>
+      <c r="X33" s="2" t="inlineStr">
+        <is>
+          <t>2357.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="45" customHeight="1">
+      <c r="A34" t="n">
+        <v>9</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Rew001_SO-G94-001_FIBER_PAL_BAZA_MOC_GRZEB</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>S235</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>8</v>
+      </c>
+      <c r="E34" t="n">
+        <v>54</v>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>0.310</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>0.346</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="O34" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="P34" s="2" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="Q34" s="2" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="R34" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S34" s="2" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="T34" s="2" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="U34" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="V34" s="2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="W34" s="2" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="X34" s="2" t="inlineStr">
+        <is>
+          <t>229.45</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>SUMA CAŁKOWITA</t>
+        </is>
+      </c>
+      <c r="X35" s="3" t="inlineStr">
+        <is>
+          <t>46794.95</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1252,54 +5462,49 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>Nazwa</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>Materiał</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>Grubość</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>Ilość</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Koszt jednostkowy (bez narzutów)</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
+      <c r="F1" s="4" t="inlineStr">
+        <is>
+          <t>Koszt jednostkowy</t>
+        </is>
+      </c>
+      <c r="G1" s="4" t="inlineStr">
         <is>
           <t>Gięcie (75%)</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="4" t="inlineStr">
         <is>
           <t>Dodatkowe</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I1" s="4" t="inlineStr">
         <is>
           <t>Koszt całkowity</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Miniatura</t>
         </is>
       </c>
     </row>
@@ -1323,17 +5528,25 @@
       <c r="E2" t="n">
         <v>48</v>
       </c>
-      <c r="F2" t="n">
-        <v>34.91</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1675.68</v>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>34.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1675.68</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -1356,17 +5569,25 @@
       <c r="E3" t="n">
         <v>48</v>
       </c>
-      <c r="F3" t="n">
-        <v>6.57</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>315.36</v>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>315.36</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -1389,17 +5610,25 @@
       <c r="E4" t="n">
         <v>12</v>
       </c>
-      <c r="F4" t="n">
-        <v>146.25</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1755</v>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>146.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>1755.00</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -1422,17 +5651,25 @@
       <c r="E5" t="n">
         <v>12</v>
       </c>
-      <c r="F5" t="n">
-        <v>51.46</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>617.52</v>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>51.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>617.52</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -1455,17 +5692,25 @@
       <c r="E6" t="n">
         <v>48</v>
       </c>
-      <c r="F6" t="n">
-        <v>12.61</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>605.28</v>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>12.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>605.28</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -1488,17 +5733,25 @@
       <c r="E7" t="n">
         <v>36</v>
       </c>
-      <c r="F7" t="n">
-        <v>83</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2988</v>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>83.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2988.00</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -1521,17 +5774,25 @@
       <c r="E8" t="n">
         <v>24</v>
       </c>
-      <c r="F8" t="n">
-        <v>5.73</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>137.52</v>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>137.52</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -1554,17 +5815,25 @@
       <c r="E9" t="n">
         <v>12</v>
       </c>
-      <c r="F9" t="n">
-        <v>247.63</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2971.56</v>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>247.63</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2971.56</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -1587,17 +5856,25 @@
       <c r="E10" t="n">
         <v>12</v>
       </c>
-      <c r="F10" t="n">
-        <v>8.859999999999999</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>106.32</v>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>106.32</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -1620,17 +5897,25 @@
       <c r="E11" t="n">
         <v>24</v>
       </c>
-      <c r="F11" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>285.36</v>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>11.89</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>285.36</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -1653,17 +5938,25 @@
       <c r="E12" t="n">
         <v>24</v>
       </c>
-      <c r="F12" t="n">
-        <v>176.01</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>4224.24</v>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>176.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>4224.24</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -1686,17 +5979,25 @@
       <c r="E13" t="n">
         <v>24</v>
       </c>
-      <c r="F13" t="n">
-        <v>291.1</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>6986.400000000001</v>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>291.10</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>6986.40</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -1719,17 +6020,25 @@
       <c r="E14" t="n">
         <v>2</v>
       </c>
-      <c r="F14" t="n">
-        <v>60.56</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>121.12</v>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>60.56</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>121.12</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -1752,17 +6061,25 @@
       <c r="E15" t="n">
         <v>48</v>
       </c>
-      <c r="F15" t="n">
-        <v>5.21</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>250.08</v>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>250.08</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -1785,17 +6102,25 @@
       <c r="E16" t="n">
         <v>12</v>
       </c>
-      <c r="F16" t="n">
-        <v>51.91</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>622.92</v>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>51.91</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>622.92</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -1818,17 +6143,25 @@
       <c r="E17" t="n">
         <v>24</v>
       </c>
-      <c r="F17" t="n">
-        <v>17.78</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>426.72</v>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>17.78</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>426.72</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -1851,17 +6184,25 @@
       <c r="E18" t="n">
         <v>144</v>
       </c>
-      <c r="F18" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>734.4</v>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>734.40</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -1884,17 +6225,25 @@
       <c r="E19" t="n">
         <v>48</v>
       </c>
-      <c r="F19" t="n">
-        <v>44.9</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2155.2</v>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>44.90</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>2155.20</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -1917,17 +6266,25 @@
       <c r="E20" t="n">
         <v>96</v>
       </c>
-      <c r="F20" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>322.56</v>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>322.56</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -1950,17 +6307,25 @@
       <c r="E21" t="n">
         <v>168</v>
       </c>
-      <c r="F21" t="n">
-        <v>47.28</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>7943.04</v>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>47.28</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>7943.04</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -1983,17 +6348,25 @@
       <c r="E22" t="n">
         <v>24</v>
       </c>
-      <c r="F22" t="n">
-        <v>47.64</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1143.36</v>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>47.64</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>1143.36</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -2016,17 +6389,25 @@
       <c r="E23" t="n">
         <v>96</v>
       </c>
-      <c r="F23" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>412.8</v>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>412.80</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -2049,17 +6430,25 @@
       <c r="E24" t="n">
         <v>24</v>
       </c>
-      <c r="F24" t="n">
-        <v>4.93</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>118.32</v>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>118.32</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -2082,17 +6471,25 @@
       <c r="E25" t="n">
         <v>24</v>
       </c>
-      <c r="F25" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>147.6</v>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>147.60</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -2115,17 +6512,25 @@
       <c r="E26" t="n">
         <v>36</v>
       </c>
-      <c r="F26" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>130.68</v>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>130.68</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -2148,17 +6553,25 @@
       <c r="E27" t="n">
         <v>24</v>
       </c>
-      <c r="F27" t="n">
-        <v>39.79</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>954.96</v>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>39.79</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>954.96</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -2181,17 +6594,25 @@
       <c r="E28" t="n">
         <v>48</v>
       </c>
-      <c r="F28" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1977.6</v>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>41.20</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>1977.60</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -2214,17 +6635,25 @@
       <c r="E29" t="n">
         <v>72</v>
       </c>
-      <c r="F29" t="n">
-        <v>9.76</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>702.72</v>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>702.72</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -2247,17 +6676,25 @@
       <c r="E30" t="n">
         <v>12</v>
       </c>
-      <c r="F30" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>41.04</v>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>41.04</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -2280,17 +6717,25 @@
       <c r="E31" t="n">
         <v>36</v>
       </c>
-      <c r="F31" t="n">
-        <v>66.18000000000001</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>2382.48</v>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>66.18</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>2382.48</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -2313,17 +6758,25 @@
       <c r="E32" t="n">
         <v>24</v>
       </c>
-      <c r="F32" t="n">
-        <v>39.84</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>956.1600000000001</v>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>39.84</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>956.16</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -2346,17 +6799,25 @@
       <c r="E33" t="n">
         <v>36</v>
       </c>
-      <c r="F33" t="n">
-        <v>65.48999999999999</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>2357.64</v>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>65.49</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>2357.64</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -2379,17 +6840,25 @@
       <c r="E34" t="n">
         <v>54</v>
       </c>
-      <c r="F34" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>229.5</v>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>229.50</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -2397,17 +6866,504 @@
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Suma</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>46799.14000000001</v>
+      <c r="E35" s="3" t="inlineStr">
+        <is>
+          <t>SUMA</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" s="3" t="inlineStr">
+        <is>
+          <t>46799.14</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="5" t="inlineStr">
+        <is>
+          <t>ANALIZA FINANSOWA ZLECENIA</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Składnik kosztów</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Wartość [PLN]</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Udział [%]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Materiał</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>34639.60</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>74.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Cięcie laserowe</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>7781.07</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>16.6%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Kontury</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>788.60</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1.7%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Znakowanie</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>95.67</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Odfoliowanie</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Koszty operacyjne</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>3440.00</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>7.4%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Technologia</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>50.00</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Gięcie</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Koszty dodatkowe</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>RAZEM</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>46794.95</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="6" t="inlineStr">
+        <is>
+          <t>WYNIK FINANSOWY</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Koszty całkowite:</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>46794.95 PLN</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Cena dla klienta:</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>49226.36 PLN</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Marża:</t>
+        </is>
+      </c>
+      <c r="B32" s="7" t="inlineStr">
+        <is>
+          <t>2431.41 PLN (5.2%)</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>WYKORZYSTANIE MATERIAŁÓW</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>Materiał</t>
+        </is>
+      </c>
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>Grubość [mm]</t>
+        </is>
+      </c>
+      <c r="C3" s="8" t="inlineStr">
+        <is>
+          <t>Waga [kg]</t>
+        </is>
+      </c>
+      <c r="D3" s="8" t="inlineStr">
+        <is>
+          <t>Długość cięcia [m]</t>
+        </is>
+      </c>
+      <c r="E3" s="8" t="inlineStr">
+        <is>
+          <t>Ilość części</t>
+        </is>
+      </c>
+      <c r="F3" s="8" t="inlineStr">
+        <is>
+          <t>Koszt [PLN]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>S235</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>841.32</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>318.00</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>108</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3746.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>S235</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>196.54</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>239.52</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>60</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1222.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>S235</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1242.49</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>412.80</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>108</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6488.76</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>S235</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2658.11</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1069.36</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>134</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>12631.48</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>S235</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2262.28</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1218.48</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>624</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>12977.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>S235</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2421.38</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>480.66</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>342</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9732.78</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Wycena/Raporty/Raport kosztów.xlsx
+++ b/Wycena/Raporty/Raport kosztów.xlsx
@@ -8,9 +8,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Szczegółowa kalkulacja" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Podsumowanie" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Wykresy i Analiza" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Statystyki materiałów" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Wykresy i Analiza" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +35,7 @@
     </font>
     <font>
       <b val="1"/>
-      <sz val="14"/>
+      <sz val="16"/>
     </font>
     <font>
       <b val="1"/>
@@ -80,20 +78,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -182,7 +179,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Rozkład kosztów zlecenia</a:t>
+              <a:t>Struktura kosztów (%)</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -194,11 +191,6 @@
         <ser>
           <idx val="0"/>
           <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Wykresy i Analiza'!B3</f>
-            </strRef>
-          </tx>
           <spPr>
             <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
@@ -206,16 +198,19 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Wykresy i Analiza'!$A$4:$A$12</f>
+              <f>'Wykresy i Analiza'!$A$4:$A$9</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Wykresy i Analiza'!$B$4:$B$12</f>
+              <f>'Wykresy i Analiza'!$C$4:$C$9</f>
             </numRef>
           </val>
         </ser>
         <dLbls>
+          <showVal val="0"/>
+          <showCatName val="1"/>
+          <showSerName val="0"/>
           <showPercent val="1"/>
         </dLbls>
         <firstSliceAng val="0"/>
@@ -230,124 +225,11 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="10"/>
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Składniki kosztów [PLN]</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <barChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Wykresy i Analiza'!B3</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Wykresy i Analiza'!$A$4:$A$12</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Wykresy i Analiza'!$B$4:$B$12</f>
-            </numRef>
-          </val>
-        </ser>
-        <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </barChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Składnik</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Wartość [PLN]</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>24</col>
+      <col>1</col>
       <colOff>0</colOff>
       <row>1</row>
       <rowOff>0</rowOff>
@@ -372,7 +254,7 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>24</col>
+      <col>1</col>
       <colOff>0</colOff>
       <row>2</row>
       <rowOff>0</rowOff>
@@ -397,7 +279,7 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>24</col>
+      <col>1</col>
       <colOff>0</colOff>
       <row>3</row>
       <rowOff>0</rowOff>
@@ -422,7 +304,7 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>24</col>
+      <col>1</col>
       <colOff>0</colOff>
       <row>4</row>
       <rowOff>0</rowOff>
@@ -447,7 +329,7 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>24</col>
+      <col>1</col>
       <colOff>0</colOff>
       <row>5</row>
       <rowOff>0</rowOff>
@@ -472,7 +354,7 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>24</col>
+      <col>1</col>
       <colOff>0</colOff>
       <row>6</row>
       <rowOff>0</rowOff>
@@ -497,7 +379,7 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>24</col>
+      <col>1</col>
       <colOff>0</colOff>
       <row>7</row>
       <rowOff>0</rowOff>
@@ -522,7 +404,7 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>24</col>
+      <col>1</col>
       <colOff>0</colOff>
       <row>8</row>
       <rowOff>0</rowOff>
@@ -547,7 +429,7 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>24</col>
+      <col>1</col>
       <colOff>0</colOff>
       <row>9</row>
       <rowOff>0</rowOff>
@@ -572,7 +454,7 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>24</col>
+      <col>1</col>
       <colOff>0</colOff>
       <row>10</row>
       <rowOff>0</rowOff>
@@ -597,7 +479,7 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>24</col>
+      <col>1</col>
       <colOff>0</colOff>
       <row>11</row>
       <rowOff>0</rowOff>
@@ -622,7 +504,7 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>24</col>
+      <col>1</col>
       <colOff>0</colOff>
       <row>12</row>
       <rowOff>0</rowOff>
@@ -647,7 +529,7 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>24</col>
+      <col>1</col>
       <colOff>0</colOff>
       <row>13</row>
       <rowOff>0</rowOff>
@@ -672,7 +554,7 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>24</col>
+      <col>1</col>
       <colOff>0</colOff>
       <row>14</row>
       <rowOff>0</rowOff>
@@ -697,7 +579,7 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>24</col>
+      <col>1</col>
       <colOff>0</colOff>
       <row>15</row>
       <rowOff>0</rowOff>
@@ -722,7 +604,7 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>24</col>
+      <col>1</col>
       <colOff>0</colOff>
       <row>16</row>
       <rowOff>0</rowOff>
@@ -747,7 +629,7 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>24</col>
+      <col>1</col>
       <colOff>0</colOff>
       <row>17</row>
       <rowOff>0</rowOff>
@@ -772,7 +654,7 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>24</col>
+      <col>1</col>
       <colOff>0</colOff>
       <row>18</row>
       <rowOff>0</rowOff>
@@ -797,7 +679,7 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>24</col>
+      <col>1</col>
       <colOff>0</colOff>
       <row>19</row>
       <rowOff>0</rowOff>
@@ -822,7 +704,7 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>24</col>
+      <col>1</col>
       <colOff>0</colOff>
       <row>20</row>
       <rowOff>0</rowOff>
@@ -847,7 +729,7 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>24</col>
+      <col>1</col>
       <colOff>0</colOff>
       <row>21</row>
       <rowOff>0</rowOff>
@@ -872,7 +754,7 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>24</col>
+      <col>1</col>
       <colOff>0</colOff>
       <row>22</row>
       <rowOff>0</rowOff>
@@ -897,7 +779,7 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>24</col>
+      <col>1</col>
       <colOff>0</colOff>
       <row>23</row>
       <rowOff>0</rowOff>
@@ -922,7 +804,7 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>24</col>
+      <col>1</col>
       <colOff>0</colOff>
       <row>24</row>
       <rowOff>0</rowOff>
@@ -947,7 +829,7 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>24</col>
+      <col>1</col>
       <colOff>0</colOff>
       <row>25</row>
       <rowOff>0</rowOff>
@@ -972,7 +854,7 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>24</col>
+      <col>1</col>
       <colOff>0</colOff>
       <row>26</row>
       <rowOff>0</rowOff>
@@ -997,7 +879,7 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>24</col>
+      <col>1</col>
       <colOff>0</colOff>
       <row>27</row>
       <rowOff>0</rowOff>
@@ -1022,7 +904,7 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>24</col>
+      <col>1</col>
       <colOff>0</colOff>
       <row>28</row>
       <rowOff>0</rowOff>
@@ -1047,7 +929,7 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>24</col>
+      <col>1</col>
       <colOff>0</colOff>
       <row>29</row>
       <rowOff>0</rowOff>
@@ -1072,7 +954,7 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>24</col>
+      <col>1</col>
       <colOff>0</colOff>
       <row>30</row>
       <rowOff>0</rowOff>
@@ -1097,7 +979,7 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>24</col>
+      <col>1</col>
       <colOff>0</colOff>
       <row>31</row>
       <rowOff>0</rowOff>
@@ -1122,7 +1004,7 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>24</col>
+      <col>1</col>
       <colOff>0</colOff>
       <row>32</row>
       <rowOff>0</rowOff>
@@ -1147,7 +1029,7 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>24</col>
+      <col>1</col>
       <colOff>0</colOff>
       <row>33</row>
       <rowOff>0</rowOff>
@@ -1182,7 +1064,7 @@
       <row>2</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="4320000" cy="2880000"/>
+    <ext cx="7200000" cy="5400000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -1192,28 +1074,6 @@
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>4</col>
-      <colOff>0</colOff>
-      <row>14</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5040000" cy="2880000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="2" name="Chart 2"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1511,7 +1371,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X35"/>
+  <dimension ref="A1:Y35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1520,29 +1380,30 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="4" customWidth="1" min="1" max="1"/>
-    <col width="30" customWidth="1" min="2" max="2"/>
-    <col width="10" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
-    <col width="13" customWidth="1" min="5" max="5"/>
-    <col width="23" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="13" customWidth="1" min="6" max="6"/>
     <col width="23" customWidth="1" min="7" max="7"/>
-    <col width="20" customWidth="1" min="8" max="8"/>
-    <col width="16" customWidth="1" min="9" max="9"/>
-    <col width="24" customWidth="1" min="10" max="10"/>
-    <col width="26" customWidth="1" min="11" max="11"/>
-    <col width="25" customWidth="1" min="12" max="12"/>
-    <col width="23" customWidth="1" min="13" max="13"/>
+    <col width="23" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
+    <col width="16" customWidth="1" min="10" max="10"/>
+    <col width="24" customWidth="1" min="11" max="11"/>
+    <col width="26" customWidth="1" min="12" max="12"/>
+    <col width="25" customWidth="1" min="13" max="13"/>
     <col width="23" customWidth="1" min="14" max="14"/>
-    <col width="20" customWidth="1" min="15" max="15"/>
-    <col width="22" customWidth="1" min="16" max="16"/>
-    <col width="24" customWidth="1" min="17" max="17"/>
-    <col width="26" customWidth="1" min="18" max="18"/>
-    <col width="24" customWidth="1" min="19" max="19"/>
-    <col width="25" customWidth="1" min="20" max="20"/>
-    <col width="18" customWidth="1" min="21" max="21"/>
-    <col width="24" customWidth="1" min="22" max="22"/>
-    <col width="25" customWidth="1" min="23" max="23"/>
-    <col width="23" customWidth="1" min="24" max="24"/>
+    <col width="23" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="22" customWidth="1" min="17" max="17"/>
+    <col width="24" customWidth="1" min="18" max="18"/>
+    <col width="26" customWidth="1" min="19" max="19"/>
+    <col width="24" customWidth="1" min="20" max="20"/>
+    <col width="25" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="24" customWidth="1" min="23" max="23"/>
+    <col width="25" customWidth="1" min="24" max="24"/>
+    <col width="23" customWidth="1" min="25" max="25"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1553,115 +1414,120 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Miniatura</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Nazwa części</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Materiał</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Grubość [mm]</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Ilość [szt]</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Waga jednostkowa [kg]</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Waga skorygowana [kg]</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Długość cięcia [m]</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Ilość konturów</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Długość znakowania [m]</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Długość odfoliowania [m]</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Cena materiału [PLN/kg]</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Stawka cięcia [PLN/m]</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Koszt materiału [PLN]</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Koszt cięcia [PLN]</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Koszt konturów [PLN]</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Koszt znakowania [PLN]</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Koszt odfoliowania [PLN]</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Koszt operacyjny [PLN]</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Koszt technologii [PLN]</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Gięcie 75% [PLN]</t>
-        </is>
-      </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
+          <t>Gięcie [PLN]</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
           <t>Koszty dodatkowe [PLN]</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Koszt jednostkowy [PLN]</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Koszt całkowity [PLN]</t>
         </is>
@@ -1671,100 +1537,96 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
         <is>
           <t>Rew001_SO-B32-001_SRODEK_I_2500</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>S235</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" s="2" t="n">
         <v>1.5</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>5.680</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>7.897</t>
         </is>
       </c>
-      <c r="H2" s="2" t="inlineStr">
+      <c r="I2" s="2" t="inlineStr">
         <is>
           <t>3.39</t>
         </is>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="J2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="J2" s="2" t="inlineStr">
+      <c r="K2" s="2" t="inlineStr">
         <is>
           <t>0.12</t>
         </is>
       </c>
-      <c r="K2" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="L2" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M2" s="2" t="inlineStr">
+        <is>
           <t>3.60</t>
         </is>
       </c>
-      <c r="M2" s="2" t="inlineStr">
+      <c r="N2" s="2" t="inlineStr">
         <is>
           <t>1.11</t>
         </is>
       </c>
-      <c r="N2" s="2" t="inlineStr">
+      <c r="O2" s="2" t="inlineStr">
         <is>
           <t>28.43</t>
         </is>
       </c>
-      <c r="O2" s="2" t="inlineStr">
+      <c r="P2" s="2" t="inlineStr">
         <is>
           <t>3.77</t>
         </is>
       </c>
-      <c r="P2" s="2" t="inlineStr">
+      <c r="Q2" s="2" t="inlineStr">
         <is>
           <t>0.10</t>
         </is>
       </c>
-      <c r="Q2" s="2" t="inlineStr">
+      <c r="R2" s="2" t="inlineStr">
         <is>
           <t>0.08</t>
         </is>
       </c>
-      <c r="R2" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="S2" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="T2" s="2" t="inlineStr">
+        <is>
           <t>2.50</t>
         </is>
       </c>
-      <c r="T2" s="2" t="inlineStr">
+      <c r="U2" s="2" t="inlineStr">
         <is>
           <t>0.04</t>
         </is>
       </c>
-      <c r="U2" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="V2" s="2" t="inlineStr">
         <is>
           <t>0.00</t>
@@ -1772,10 +1634,15 @@
       </c>
       <c r="W2" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="X2" s="2" t="inlineStr">
+        <is>
           <t>34.91</t>
         </is>
       </c>
-      <c r="X2" s="2" t="inlineStr">
+      <c r="Y2" s="2" t="inlineStr">
         <is>
           <t>1675.67</t>
         </is>
@@ -1785,100 +1652,96 @@
       <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
         <is>
           <t>Rew001_SO-036-002_KANAL_SCIANA_OKNO_ZASLEPKA</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>S235</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" s="2" t="n">
         <v>1.5</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="G3" s="2" t="inlineStr">
         <is>
           <t>0.480</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="H3" s="2" t="inlineStr">
         <is>
           <t>0.667</t>
         </is>
       </c>
-      <c r="H3" s="2" t="inlineStr">
+      <c r="I3" s="2" t="inlineStr">
         <is>
           <t>1.04</t>
         </is>
       </c>
-      <c r="I3" s="2" t="n">
+      <c r="J3" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="J3" s="2" t="inlineStr">
+      <c r="K3" s="2" t="inlineStr">
         <is>
           <t>0.11</t>
         </is>
       </c>
-      <c r="K3" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="L3" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M3" s="2" t="inlineStr">
+        <is>
           <t>3.60</t>
         </is>
       </c>
-      <c r="M3" s="2" t="inlineStr">
+      <c r="N3" s="2" t="inlineStr">
         <is>
           <t>1.11</t>
         </is>
       </c>
-      <c r="N3" s="2" t="inlineStr">
+      <c r="O3" s="2" t="inlineStr">
         <is>
           <t>2.40</t>
         </is>
       </c>
-      <c r="O3" s="2" t="inlineStr">
+      <c r="P3" s="2" t="inlineStr">
         <is>
           <t>1.16</t>
         </is>
       </c>
-      <c r="P3" s="2" t="inlineStr">
+      <c r="Q3" s="2" t="inlineStr">
         <is>
           <t>0.40</t>
         </is>
       </c>
-      <c r="Q3" s="2" t="inlineStr">
+      <c r="R3" s="2" t="inlineStr">
         <is>
           <t>0.07</t>
         </is>
       </c>
-      <c r="R3" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="S3" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="T3" s="2" t="inlineStr">
+        <is>
           <t>2.50</t>
         </is>
       </c>
-      <c r="T3" s="2" t="inlineStr">
+      <c r="U3" s="2" t="inlineStr">
         <is>
           <t>0.04</t>
         </is>
       </c>
-      <c r="U3" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="V3" s="2" t="inlineStr">
         <is>
           <t>0.00</t>
@@ -1886,10 +1749,15 @@
       </c>
       <c r="W3" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="X3" s="2" t="inlineStr">
+        <is>
           <t>6.57</t>
         </is>
       </c>
-      <c r="X3" s="2" t="inlineStr">
+      <c r="Y3" s="2" t="inlineStr">
         <is>
           <t>315.21</t>
         </is>
@@ -1899,100 +1767,96 @@
       <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
         <is>
           <t>Rew001_SO-G68-001_FIBER_DNO_2520</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" s="2" t="inlineStr">
         <is>
           <t>S235</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" s="2" t="n">
         <v>1.5</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>25.790</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>35.854</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>8.78</t>
         </is>
       </c>
-      <c r="I4" s="2" t="n">
+      <c r="J4" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="J4" s="2" t="inlineStr">
+      <c r="K4" s="2" t="inlineStr">
         <is>
           <t>0.12</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
           <t>3.60</t>
         </is>
       </c>
-      <c r="M4" s="2" t="inlineStr">
+      <c r="N4" s="2" t="inlineStr">
         <is>
           <t>1.11</t>
         </is>
       </c>
-      <c r="N4" s="2" t="inlineStr">
+      <c r="O4" s="2" t="inlineStr">
         <is>
           <t>129.08</t>
         </is>
       </c>
-      <c r="O4" s="2" t="inlineStr">
+      <c r="P4" s="2" t="inlineStr">
         <is>
           <t>9.76</t>
         </is>
       </c>
-      <c r="P4" s="2" t="inlineStr">
+      <c r="Q4" s="2" t="inlineStr">
         <is>
           <t>4.80</t>
         </is>
       </c>
-      <c r="Q4" s="2" t="inlineStr">
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>0.08</t>
         </is>
       </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
           <t>2.50</t>
         </is>
       </c>
-      <c r="T4" s="2" t="inlineStr">
+      <c r="U4" s="2" t="inlineStr">
         <is>
           <t>0.04</t>
         </is>
       </c>
-      <c r="U4" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
           <t>0.00</t>
@@ -2000,10 +1864,15 @@
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="X4" s="2" t="inlineStr">
+        <is>
           <t>146.25</t>
         </is>
       </c>
-      <c r="X4" s="2" t="inlineStr">
+      <c r="Y4" s="2" t="inlineStr">
         <is>
           <t>1754.96</t>
         </is>
@@ -2013,100 +1882,96 @@
       <c r="A5" t="n">
         <v>1</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Rew001_SO-H16-001_FIBER_BOK_Z_OKNAMI_2000_PALETA</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" s="2" t="inlineStr">
         <is>
           <t>S235</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>4.830</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>7.951</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>12.80</t>
         </is>
       </c>
-      <c r="I5" s="2" t="n">
+      <c r="J5" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="J5" s="2" t="inlineStr">
+      <c r="K5" s="2" t="inlineStr">
         <is>
           <t>0.12</t>
         </is>
       </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
           <t>3.60</t>
         </is>
       </c>
-      <c r="M5" s="2" t="inlineStr">
+      <c r="N5" s="2" t="inlineStr">
         <is>
           <t>1.11</t>
         </is>
       </c>
-      <c r="N5" s="2" t="inlineStr">
+      <c r="O5" s="2" t="inlineStr">
         <is>
           <t>28.62</t>
         </is>
       </c>
-      <c r="O5" s="2" t="inlineStr">
+      <c r="P5" s="2" t="inlineStr">
         <is>
           <t>14.22</t>
         </is>
       </c>
-      <c r="P5" s="2" t="inlineStr">
+      <c r="Q5" s="2" t="inlineStr">
         <is>
           <t>6.00</t>
         </is>
       </c>
-      <c r="Q5" s="2" t="inlineStr">
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>0.08</t>
         </is>
       </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
           <t>2.50</t>
         </is>
       </c>
-      <c r="T5" s="2" t="inlineStr">
+      <c r="U5" s="2" t="inlineStr">
         <is>
           <t>0.04</t>
         </is>
       </c>
-      <c r="U5" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
           <t>0.00</t>
@@ -2114,10 +1979,15 @@
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="X5" s="2" t="inlineStr">
+        <is>
           <t>51.46</t>
         </is>
       </c>
-      <c r="X5" s="2" t="inlineStr">
+      <c r="Y5" s="2" t="inlineStr">
         <is>
           <t>617.52</t>
         </is>
@@ -2127,45 +1997,41 @@
       <c r="A6" t="n">
         <v>2</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Rew003_SO-031-001_BOK_OKNO_ZASLEPKA</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" s="2" t="inlineStr">
         <is>
           <t>S235</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>1.280</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>2.107</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>1.79</t>
         </is>
       </c>
-      <c r="I6" s="2" t="n">
+      <c r="J6" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
           <t>0.00</t>
@@ -2173,34 +2039,34 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
           <t>3.60</t>
         </is>
       </c>
-      <c r="M6" s="2" t="inlineStr">
+      <c r="N6" s="2" t="inlineStr">
         <is>
           <t>1.11</t>
         </is>
       </c>
-      <c r="N6" s="2" t="inlineStr">
+      <c r="O6" s="2" t="inlineStr">
         <is>
           <t>7.59</t>
         </is>
       </c>
-      <c r="O6" s="2" t="inlineStr">
+      <c r="P6" s="2" t="inlineStr">
         <is>
           <t>1.99</t>
         </is>
       </c>
-      <c r="P6" s="2" t="inlineStr">
+      <c r="Q6" s="2" t="inlineStr">
         <is>
           <t>0.50</t>
         </is>
       </c>
-      <c r="Q6" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
           <t>0.00</t>
@@ -2208,19 +2074,19 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
           <t>2.50</t>
         </is>
       </c>
-      <c r="T6" s="2" t="inlineStr">
+      <c r="U6" s="2" t="inlineStr">
         <is>
           <t>0.04</t>
         </is>
       </c>
-      <c r="U6" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
           <t>0.00</t>
@@ -2228,10 +2094,15 @@
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="X6" s="2" t="inlineStr">
+        <is>
           <t>12.61</t>
         </is>
       </c>
-      <c r="X6" s="2" t="inlineStr">
+      <c r="Y6" s="2" t="inlineStr">
         <is>
           <t>605.30</t>
         </is>
@@ -2241,100 +2112,96 @@
       <c r="A7" t="n">
         <v>1</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Rew001_SO-G95-001_FIBER_GRZEBIEN_PAL_2520</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" s="2" t="inlineStr">
         <is>
           <t>S235</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>12.220</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>15.563</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>5.96</t>
         </is>
       </c>
-      <c r="I7" s="2" t="n">
+      <c r="J7" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="J7" s="2" t="inlineStr">
+      <c r="K7" s="2" t="inlineStr">
         <is>
           <t>0.12</t>
         </is>
       </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
           <t>3.60</t>
         </is>
       </c>
-      <c r="M7" s="2" t="inlineStr">
+      <c r="N7" s="2" t="inlineStr">
         <is>
           <t>3.97</t>
         </is>
       </c>
-      <c r="N7" s="2" t="inlineStr">
+      <c r="O7" s="2" t="inlineStr">
         <is>
           <t>56.03</t>
         </is>
       </c>
-      <c r="O7" s="2" t="inlineStr">
+      <c r="P7" s="2" t="inlineStr">
         <is>
           <t>23.65</t>
         </is>
       </c>
-      <c r="P7" s="2" t="inlineStr">
+      <c r="Q7" s="2" t="inlineStr">
         <is>
           <t>0.70</t>
         </is>
       </c>
-      <c r="Q7" s="2" t="inlineStr">
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>0.08</t>
         </is>
       </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
           <t>2.50</t>
         </is>
       </c>
-      <c r="T7" s="2" t="inlineStr">
+      <c r="U7" s="2" t="inlineStr">
         <is>
           <t>0.04</t>
         </is>
       </c>
-      <c r="U7" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
           <t>0.00</t>
@@ -2342,10 +2209,15 @@
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="X7" s="2" t="inlineStr">
+        <is>
           <t>82.99</t>
         </is>
       </c>
-      <c r="X7" s="2" t="inlineStr">
+      <c r="Y7" s="2" t="inlineStr">
         <is>
           <t>2987.74</t>
         </is>
@@ -2355,100 +2227,96 @@
       <c r="A8" t="n">
         <v>2</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Rew001_SO-G81-001_FIBER_PAL_RAMA_POZYCJONER_Y_II</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" s="2" t="inlineStr">
         <is>
           <t>S235</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>0.370</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>0.471</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>0.33</t>
         </is>
       </c>
-      <c r="I8" s="2" t="n">
+      <c r="J8" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="J8" s="2" t="inlineStr">
+      <c r="K8" s="2" t="inlineStr">
         <is>
           <t>0.12</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
           <t>3.60</t>
         </is>
       </c>
-      <c r="M8" s="2" t="inlineStr">
+      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>3.97</t>
         </is>
       </c>
-      <c r="N8" s="2" t="inlineStr">
+      <c r="O8" s="2" t="inlineStr">
         <is>
           <t>1.70</t>
         </is>
       </c>
-      <c r="O8" s="2" t="inlineStr">
+      <c r="P8" s="2" t="inlineStr">
         <is>
           <t>1.31</t>
         </is>
       </c>
-      <c r="P8" s="2" t="inlineStr">
+      <c r="Q8" s="2" t="inlineStr">
         <is>
           <t>0.10</t>
         </is>
       </c>
-      <c r="Q8" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>0.08</t>
         </is>
       </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
           <t>2.50</t>
         </is>
       </c>
-      <c r="T8" s="2" t="inlineStr">
+      <c r="U8" s="2" t="inlineStr">
         <is>
           <t>0.04</t>
         </is>
       </c>
-      <c r="U8" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
           <t>0.00</t>
@@ -2456,10 +2324,15 @@
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="X8" s="2" t="inlineStr">
+        <is>
           <t>5.72</t>
         </is>
       </c>
-      <c r="X8" s="2" t="inlineStr">
+      <c r="Y8" s="2" t="inlineStr">
         <is>
           <t>137.31</t>
         </is>
@@ -2469,100 +2342,96 @@
       <c r="A9" t="n">
         <v>3</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Rew001_SO-G72-001_FIBER_PAL_RAMA_GRZEB_BOK</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" s="2" t="inlineStr">
         <is>
           <t>S235</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="F9" s="2" t="inlineStr">
+      <c r="G9" s="2" t="inlineStr">
         <is>
           <t>40.730</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
+      <c r="H9" s="2" t="inlineStr">
         <is>
           <t>51.872</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
+      <c r="I9" s="2" t="inlineStr">
         <is>
           <t>13.40</t>
         </is>
       </c>
-      <c r="I9" s="2" t="n">
+      <c r="J9" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="J9" s="2" t="inlineStr">
+      <c r="K9" s="2" t="inlineStr">
         <is>
           <t>0.12</t>
         </is>
       </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
           <t>3.60</t>
         </is>
       </c>
-      <c r="M9" s="2" t="inlineStr">
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>3.97</t>
         </is>
       </c>
-      <c r="N9" s="2" t="inlineStr">
+      <c r="O9" s="2" t="inlineStr">
         <is>
           <t>186.74</t>
         </is>
       </c>
-      <c r="O9" s="2" t="inlineStr">
+      <c r="P9" s="2" t="inlineStr">
         <is>
           <t>53.17</t>
         </is>
       </c>
-      <c r="P9" s="2" t="inlineStr">
+      <c r="Q9" s="2" t="inlineStr">
         <is>
           <t>5.10</t>
         </is>
       </c>
-      <c r="Q9" s="2" t="inlineStr">
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>0.08</t>
         </is>
       </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
           <t>2.50</t>
         </is>
       </c>
-      <c r="T9" s="2" t="inlineStr">
+      <c r="U9" s="2" t="inlineStr">
         <is>
           <t>0.04</t>
         </is>
       </c>
-      <c r="U9" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
           <t>0.00</t>
@@ -2570,10 +2439,15 @@
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="X9" s="2" t="inlineStr">
+        <is>
           <t>247.63</t>
         </is>
       </c>
-      <c r="X9" s="2" t="inlineStr">
+      <c r="Y9" s="2" t="inlineStr">
         <is>
           <t>2971.56</t>
         </is>
@@ -2583,100 +2457,96 @@
       <c r="A10" t="n">
         <v>4</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
         <is>
           <t>Rew001_SO-G77-001_FIBER_PAL_NOGA_SRODKOWA</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" s="2" t="inlineStr">
         <is>
           <t>S235</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>0.770</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>0.981</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>0.66</t>
         </is>
       </c>
-      <c r="I10" s="2" t="n">
+      <c r="J10" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="J10" s="2" t="inlineStr">
+      <c r="K10" s="2" t="inlineStr">
         <is>
           <t>0.11</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
           <t>3.60</t>
         </is>
       </c>
-      <c r="M10" s="2" t="inlineStr">
+      <c r="N10" s="2" t="inlineStr">
         <is>
           <t>3.97</t>
         </is>
       </c>
-      <c r="N10" s="2" t="inlineStr">
+      <c r="O10" s="2" t="inlineStr">
         <is>
           <t>3.53</t>
         </is>
       </c>
-      <c r="O10" s="2" t="inlineStr">
+      <c r="P10" s="2" t="inlineStr">
         <is>
           <t>2.62</t>
         </is>
       </c>
-      <c r="P10" s="2" t="inlineStr">
+      <c r="Q10" s="2" t="inlineStr">
         <is>
           <t>0.10</t>
         </is>
       </c>
-      <c r="Q10" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>0.07</t>
         </is>
       </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
           <t>2.50</t>
         </is>
       </c>
-      <c r="T10" s="2" t="inlineStr">
+      <c r="U10" s="2" t="inlineStr">
         <is>
           <t>0.04</t>
         </is>
       </c>
-      <c r="U10" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
           <t>0.00</t>
@@ -2684,10 +2554,15 @@
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="X10" s="2" t="inlineStr">
+        <is>
           <t>8.86</t>
         </is>
       </c>
-      <c r="X10" s="2" t="inlineStr">
+      <c r="Y10" s="2" t="inlineStr">
         <is>
           <t>106.30</t>
         </is>
@@ -2697,100 +2572,96 @@
       <c r="A11" t="n">
         <v>5</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
         <is>
           <t>Rew001_SO-G75-002_FIBER_PAL_RAMA_POZ_Y_HAK</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" s="2" t="inlineStr">
         <is>
           <t>S235</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="F11" s="2" t="inlineStr">
+      <c r="G11" s="2" t="inlineStr">
         <is>
           <t>1.200</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
+      <c r="H11" s="2" t="inlineStr">
         <is>
           <t>1.528</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
+      <c r="I11" s="2" t="inlineStr">
         <is>
           <t>0.90</t>
         </is>
       </c>
-      <c r="I11" s="2" t="n">
+      <c r="J11" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="J11" s="2" t="inlineStr">
+      <c r="K11" s="2" t="inlineStr">
         <is>
           <t>0.12</t>
         </is>
       </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
           <t>3.60</t>
         </is>
       </c>
-      <c r="M11" s="2" t="inlineStr">
+      <c r="N11" s="2" t="inlineStr">
         <is>
           <t>3.97</t>
         </is>
       </c>
-      <c r="N11" s="2" t="inlineStr">
+      <c r="O11" s="2" t="inlineStr">
         <is>
           <t>5.50</t>
         </is>
       </c>
-      <c r="O11" s="2" t="inlineStr">
+      <c r="P11" s="2" t="inlineStr">
         <is>
           <t>3.57</t>
         </is>
       </c>
-      <c r="P11" s="2" t="inlineStr">
+      <c r="Q11" s="2" t="inlineStr">
         <is>
           <t>0.20</t>
         </is>
       </c>
-      <c r="Q11" s="2" t="inlineStr">
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>0.08</t>
         </is>
       </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
           <t>2.50</t>
         </is>
       </c>
-      <c r="T11" s="2" t="inlineStr">
+      <c r="U11" s="2" t="inlineStr">
         <is>
           <t>0.04</t>
         </is>
       </c>
-      <c r="U11" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
           <t>0.00</t>
@@ -2798,10 +2669,15 @@
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="X11" s="2" t="inlineStr">
+        <is>
           <t>11.89</t>
         </is>
       </c>
-      <c r="X11" s="2" t="inlineStr">
+      <c r="Y11" s="2" t="inlineStr">
         <is>
           <t>285.33</t>
         </is>
@@ -2811,45 +2687,41 @@
       <c r="A12" t="n">
         <v>1</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
         <is>
           <t>Rew004_SO-539-002_KANAL_PALETA</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" s="2" t="inlineStr">
         <is>
           <t>S235</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="F12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>26.220</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>34.360</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>19.29</t>
         </is>
       </c>
-      <c r="I12" s="2" t="n">
+      <c r="J12" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
           <t>0.00</t>
@@ -2857,34 +2729,34 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
           <t>3.60</t>
         </is>
       </c>
-      <c r="M12" s="2" t="inlineStr">
+      <c r="N12" s="2" t="inlineStr">
         <is>
           <t>2.24</t>
         </is>
       </c>
-      <c r="N12" s="2" t="inlineStr">
+      <c r="O12" s="2" t="inlineStr">
         <is>
           <t>123.70</t>
         </is>
       </c>
-      <c r="O12" s="2" t="inlineStr">
+      <c r="P12" s="2" t="inlineStr">
         <is>
           <t>43.28</t>
         </is>
       </c>
-      <c r="P12" s="2" t="inlineStr">
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>6.50</t>
         </is>
       </c>
-      <c r="Q12" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
           <t>0.00</t>
@@ -2892,19 +2764,19 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
           <t>2.50</t>
         </is>
       </c>
-      <c r="T12" s="2" t="inlineStr">
+      <c r="U12" s="2" t="inlineStr">
         <is>
           <t>0.04</t>
         </is>
       </c>
-      <c r="U12" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
           <t>0.00</t>
@@ -2912,10 +2784,15 @@
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="X12" s="2" t="inlineStr">
+        <is>
           <t>176.01</t>
         </is>
       </c>
-      <c r="X12" s="2" t="inlineStr">
+      <c r="Y12" s="2" t="inlineStr">
         <is>
           <t>4224.26</t>
         </is>
@@ -2925,45 +2802,41 @@
       <c r="A13" t="n">
         <v>2</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
         <is>
           <t>Rew001_SO-G69-001_FIBER_WANNA_2520</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" s="2" t="inlineStr">
         <is>
           <t>S235</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="F13" s="2" t="inlineStr">
+      <c r="G13" s="2" t="inlineStr">
         <is>
           <t>51.500</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
+      <c r="H13" s="2" t="inlineStr">
         <is>
           <t>67.488</t>
         </is>
       </c>
-      <c r="H13" s="2" t="inlineStr">
+      <c r="I13" s="2" t="inlineStr">
         <is>
           <t>18.32</t>
         </is>
       </c>
-      <c r="I13" s="2" t="n">
+      <c r="J13" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
           <t>0.00</t>
@@ -2971,34 +2844,34 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
           <t>3.60</t>
         </is>
       </c>
-      <c r="M13" s="2" t="inlineStr">
+      <c r="N13" s="2" t="inlineStr">
         <is>
           <t>2.24</t>
         </is>
       </c>
-      <c r="N13" s="2" t="inlineStr">
+      <c r="O13" s="2" t="inlineStr">
         <is>
           <t>242.96</t>
         </is>
       </c>
-      <c r="O13" s="2" t="inlineStr">
+      <c r="P13" s="2" t="inlineStr">
         <is>
           <t>41.10</t>
         </is>
       </c>
-      <c r="P13" s="2" t="inlineStr">
+      <c r="Q13" s="2" t="inlineStr">
         <is>
           <t>4.50</t>
         </is>
       </c>
-      <c r="Q13" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
           <t>0.00</t>
@@ -3006,19 +2879,19 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
           <t>2.50</t>
         </is>
       </c>
-      <c r="T13" s="2" t="inlineStr">
+      <c r="U13" s="2" t="inlineStr">
         <is>
           <t>0.04</t>
         </is>
       </c>
-      <c r="U13" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
           <t>0.00</t>
@@ -3026,10 +2899,15 @@
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="X13" s="2" t="inlineStr">
+        <is>
           <t>291.10</t>
         </is>
       </c>
-      <c r="X13" s="2" t="inlineStr">
+      <c r="Y13" s="2" t="inlineStr">
         <is>
           <t>6986.29</t>
         </is>
@@ -3039,45 +2917,41 @@
       <c r="A14" t="n">
         <v>3</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
         <is>
           <t>Rew001_SO-G76-001_FIBER_PAL_2520_ZAMK_CZOL</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" s="2" t="inlineStr">
         <is>
           <t>S235</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>9.500</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
+      <c r="H14" s="2" t="inlineStr">
         <is>
           <t>12.449</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
+      <c r="I14" s="2" t="inlineStr">
         <is>
           <t>5.84</t>
         </is>
       </c>
-      <c r="I14" s="2" t="n">
+      <c r="J14" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
           <t>0.00</t>
@@ -3085,34 +2959,34 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
           <t>3.60</t>
         </is>
       </c>
-      <c r="M14" s="2" t="inlineStr">
+      <c r="N14" s="2" t="inlineStr">
         <is>
           <t>2.24</t>
         </is>
       </c>
-      <c r="N14" s="2" t="inlineStr">
+      <c r="O14" s="2" t="inlineStr">
         <is>
           <t>44.82</t>
         </is>
       </c>
-      <c r="O14" s="2" t="inlineStr">
+      <c r="P14" s="2" t="inlineStr">
         <is>
           <t>13.10</t>
         </is>
       </c>
-      <c r="P14" s="2" t="inlineStr">
+      <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>0.10</t>
         </is>
       </c>
-      <c r="Q14" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
           <t>0.00</t>
@@ -3120,19 +2994,19 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
           <t>2.50</t>
         </is>
       </c>
-      <c r="T14" s="2" t="inlineStr">
+      <c r="U14" s="2" t="inlineStr">
         <is>
           <t>0.04</t>
         </is>
       </c>
-      <c r="U14" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
           <t>0.00</t>
@@ -3140,10 +3014,15 @@
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="X14" s="2" t="inlineStr">
+        <is>
           <t>60.56</t>
         </is>
       </c>
-      <c r="X14" s="2" t="inlineStr">
+      <c r="Y14" s="2" t="inlineStr">
         <is>
           <t>121.11</t>
         </is>
@@ -3153,100 +3032,96 @@
       <c r="A15" t="n">
         <v>4</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
         <is>
           <t>Rew002_SO-413-001_MOCOWANIE_SILOWNIKA</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" s="2" t="inlineStr">
         <is>
           <t>S235</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="G15" s="2" t="inlineStr">
         <is>
           <t>0.080</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
+      <c r="H15" s="2" t="inlineStr">
         <is>
           <t>0.105</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
+      <c r="I15" s="2" t="inlineStr">
         <is>
           <t>0.64</t>
         </is>
       </c>
-      <c r="I15" s="2" t="n">
+      <c r="J15" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="J15" s="2" t="inlineStr">
+      <c r="K15" s="2" t="inlineStr">
         <is>
           <t>0.09</t>
         </is>
       </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
           <t>3.60</t>
         </is>
       </c>
-      <c r="M15" s="2" t="inlineStr">
+      <c r="N15" s="2" t="inlineStr">
         <is>
           <t>2.24</t>
         </is>
       </c>
-      <c r="N15" s="2" t="inlineStr">
+      <c r="O15" s="2" t="inlineStr">
         <is>
           <t>0.38</t>
         </is>
       </c>
-      <c r="O15" s="2" t="inlineStr">
+      <c r="P15" s="2" t="inlineStr">
         <is>
           <t>1.44</t>
         </is>
       </c>
-      <c r="P15" s="2" t="inlineStr">
+      <c r="Q15" s="2" t="inlineStr">
         <is>
           <t>0.80</t>
         </is>
       </c>
-      <c r="Q15" s="2" t="inlineStr">
+      <c r="R15" s="2" t="inlineStr">
         <is>
           <t>0.06</t>
         </is>
       </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
           <t>2.50</t>
         </is>
       </c>
-      <c r="T15" s="2" t="inlineStr">
+      <c r="U15" s="2" t="inlineStr">
         <is>
           <t>0.04</t>
         </is>
       </c>
-      <c r="U15" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
           <t>0.00</t>
@@ -3254,10 +3129,15 @@
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="X15" s="2" t="inlineStr">
+        <is>
           <t>5.21</t>
         </is>
       </c>
-      <c r="X15" s="2" t="inlineStr">
+      <c r="Y15" s="2" t="inlineStr">
         <is>
           <t>250.03</t>
         </is>
@@ -3267,45 +3147,41 @@
       <c r="A16" t="n">
         <v>5</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
         <is>
           <t>Rew001_SO-H09-001_FIBER_PAL_OSL_GRZEB_BOK</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" s="2" t="inlineStr">
         <is>
           <t>S235</t>
         </is>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="F16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>7.970</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
+      <c r="H16" s="2" t="inlineStr">
         <is>
           <t>10.444</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
+      <c r="I16" s="2" t="inlineStr">
         <is>
           <t>5.20</t>
         </is>
       </c>
-      <c r="I16" s="2" t="n">
+      <c r="J16" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
           <t>0.00</t>
@@ -3313,34 +3189,34 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
           <t>3.60</t>
         </is>
       </c>
-      <c r="M16" s="2" t="inlineStr">
+      <c r="N16" s="2" t="inlineStr">
         <is>
           <t>2.24</t>
         </is>
       </c>
-      <c r="N16" s="2" t="inlineStr">
+      <c r="O16" s="2" t="inlineStr">
         <is>
           <t>37.60</t>
         </is>
       </c>
-      <c r="O16" s="2" t="inlineStr">
+      <c r="P16" s="2" t="inlineStr">
         <is>
           <t>11.67</t>
         </is>
       </c>
-      <c r="P16" s="2" t="inlineStr">
+      <c r="Q16" s="2" t="inlineStr">
         <is>
           <t>0.10</t>
         </is>
       </c>
-      <c r="Q16" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
           <t>0.00</t>
@@ -3348,19 +3224,19 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
           <t>2.50</t>
         </is>
       </c>
-      <c r="T16" s="2" t="inlineStr">
+      <c r="U16" s="2" t="inlineStr">
         <is>
           <t>0.04</t>
         </is>
       </c>
-      <c r="U16" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
           <t>0.00</t>
@@ -3368,10 +3244,15 @@
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="X16" s="2" t="inlineStr">
+        <is>
           <t>51.90</t>
         </is>
       </c>
-      <c r="X16" s="2" t="inlineStr">
+      <c r="Y16" s="2" t="inlineStr">
         <is>
           <t>622.83</t>
         </is>
@@ -3381,100 +3262,96 @@
       <c r="A17" t="n">
         <v>6</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
         <is>
           <t>Rew001_SO-H07-001_FIBER_PAL_DOSZCZ_GORNE</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" s="2" t="inlineStr">
         <is>
           <t>S235</t>
         </is>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="F17" s="2" t="inlineStr">
+      <c r="G17" s="2" t="inlineStr">
         <is>
           <t>1.860</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="H17" s="2" t="inlineStr">
         <is>
           <t>2.437</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="I17" s="2" t="inlineStr">
         <is>
           <t>2.58</t>
         </is>
       </c>
-      <c r="I17" s="2" t="n">
+      <c r="J17" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="J17" s="2" t="inlineStr">
+      <c r="K17" s="2" t="inlineStr">
         <is>
           <t>0.12</t>
         </is>
       </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
           <t>3.60</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="N17" s="2" t="inlineStr">
         <is>
           <t>2.24</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
+      <c r="O17" s="2" t="inlineStr">
         <is>
           <t>8.77</t>
         </is>
       </c>
-      <c r="O17" s="2" t="inlineStr">
+      <c r="P17" s="2" t="inlineStr">
         <is>
           <t>5.79</t>
         </is>
       </c>
-      <c r="P17" s="2" t="inlineStr">
+      <c r="Q17" s="2" t="inlineStr">
         <is>
           <t>0.60</t>
         </is>
       </c>
-      <c r="Q17" s="2" t="inlineStr">
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>0.08</t>
         </is>
       </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
           <t>2.50</t>
         </is>
       </c>
-      <c r="T17" s="2" t="inlineStr">
+      <c r="U17" s="2" t="inlineStr">
         <is>
           <t>0.04</t>
         </is>
       </c>
-      <c r="U17" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
           <t>0.00</t>
@@ -3482,10 +3359,15 @@
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="X17" s="2" t="inlineStr">
+        <is>
           <t>17.78</t>
         </is>
       </c>
-      <c r="X17" s="2" t="inlineStr">
+      <c r="Y17" s="2" t="inlineStr">
         <is>
           <t>426.69</t>
         </is>
@@ -3495,100 +3377,96 @@
       <c r="A18" t="n">
         <v>1</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
         <is>
           <t>Rew001_SO-G93-001_FIBER_MOC_DASZKA_SRODEK_PAL</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" s="2" t="inlineStr">
         <is>
           <t>S235</t>
         </is>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" s="2" t="n">
         <v>144</v>
       </c>
-      <c r="F18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>0.240</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
+      <c r="H18" s="2" t="inlineStr">
         <is>
           <t>0.285</t>
         </is>
       </c>
-      <c r="H18" s="2" t="inlineStr">
+      <c r="I18" s="2" t="inlineStr">
         <is>
           <t>0.53</t>
         </is>
       </c>
-      <c r="I18" s="2" t="n">
+      <c r="J18" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="J18" s="2" t="inlineStr">
+      <c r="K18" s="2" t="inlineStr">
         <is>
           <t>0.12</t>
         </is>
       </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
           <t>3.60</t>
         </is>
       </c>
-      <c r="M18" s="2" t="inlineStr">
+      <c r="N18" s="2" t="inlineStr">
         <is>
           <t>2.56</t>
         </is>
       </c>
-      <c r="N18" s="2" t="inlineStr">
+      <c r="O18" s="2" t="inlineStr">
         <is>
           <t>1.03</t>
         </is>
       </c>
-      <c r="O18" s="2" t="inlineStr">
+      <c r="P18" s="2" t="inlineStr">
         <is>
           <t>1.36</t>
         </is>
       </c>
-      <c r="P18" s="2" t="inlineStr">
+      <c r="Q18" s="2" t="inlineStr">
         <is>
           <t>0.10</t>
         </is>
       </c>
-      <c r="Q18" s="2" t="inlineStr">
+      <c r="R18" s="2" t="inlineStr">
         <is>
           <t>0.08</t>
         </is>
       </c>
-      <c r="R18" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
           <t>2.50</t>
         </is>
       </c>
-      <c r="T18" s="2" t="inlineStr">
+      <c r="U18" s="2" t="inlineStr">
         <is>
           <t>0.04</t>
         </is>
       </c>
-      <c r="U18" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
           <t>0.00</t>
@@ -3596,10 +3474,15 @@
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="X18" s="2" t="inlineStr">
+        <is>
           <t>5.10</t>
         </is>
       </c>
-      <c r="X18" s="2" t="inlineStr">
+      <c r="Y18" s="2" t="inlineStr">
         <is>
           <t>734.54</t>
         </is>
@@ -3609,100 +3492,96 @@
       <c r="A19" t="n">
         <v>2</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
         <is>
           <t>Rew001_SO-H15-001_FIBER_PAL_2520_DNO_WANNY_5</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>S235</t>
         </is>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="F19" s="2" t="inlineStr">
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>8.490</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>10.087</t>
         </is>
       </c>
-      <c r="H19" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>2.29</t>
         </is>
       </c>
-      <c r="I19" s="2" t="n">
+      <c r="J19" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="J19" s="2" t="inlineStr">
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>0.12</t>
         </is>
       </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
           <t>3.60</t>
         </is>
       </c>
-      <c r="M19" s="2" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
         <is>
           <t>2.56</t>
         </is>
       </c>
-      <c r="N19" s="2" t="inlineStr">
+      <c r="O19" s="2" t="inlineStr">
         <is>
           <t>36.31</t>
         </is>
       </c>
-      <c r="O19" s="2" t="inlineStr">
+      <c r="P19" s="2" t="inlineStr">
         <is>
           <t>5.87</t>
         </is>
       </c>
-      <c r="P19" s="2" t="inlineStr">
+      <c r="Q19" s="2" t="inlineStr">
         <is>
           <t>0.10</t>
         </is>
       </c>
-      <c r="Q19" s="2" t="inlineStr">
+      <c r="R19" s="2" t="inlineStr">
         <is>
           <t>0.08</t>
         </is>
       </c>
-      <c r="R19" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
           <t>2.50</t>
         </is>
       </c>
-      <c r="T19" s="2" t="inlineStr">
+      <c r="U19" s="2" t="inlineStr">
         <is>
           <t>0.04</t>
         </is>
       </c>
-      <c r="U19" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
           <t>0.00</t>
@@ -3710,10 +3589,15 @@
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="X19" s="2" t="inlineStr">
+        <is>
           <t>44.90</t>
         </is>
       </c>
-      <c r="X19" s="2" t="inlineStr">
+      <c r="Y19" s="2" t="inlineStr">
         <is>
           <t>2155.18</t>
         </is>
@@ -3723,100 +3607,96 @@
       <c r="A20" t="n">
         <v>3</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
         <is>
           <t>Rew001_SO-H04-001_FIBER_PAL_MOC_DASZKA_BOK_GNIAZDO</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" s="2" t="inlineStr">
         <is>
           <t>S235</t>
         </is>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" s="2" t="n">
         <v>96</v>
       </c>
-      <c r="F20" s="2" t="inlineStr">
+      <c r="G20" s="2" t="inlineStr">
         <is>
           <t>0.030</t>
         </is>
       </c>
-      <c r="G20" s="2" t="inlineStr">
+      <c r="H20" s="2" t="inlineStr">
         <is>
           <t>0.036</t>
         </is>
       </c>
-      <c r="H20" s="2" t="inlineStr">
+      <c r="I20" s="2" t="inlineStr">
         <is>
           <t>0.17</t>
         </is>
       </c>
-      <c r="I20" s="2" t="n">
+      <c r="J20" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="J20" s="2" t="inlineStr">
+      <c r="K20" s="2" t="inlineStr">
         <is>
           <t>0.09</t>
         </is>
       </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
           <t>3.60</t>
         </is>
       </c>
-      <c r="M20" s="2" t="inlineStr">
+      <c r="N20" s="2" t="inlineStr">
         <is>
           <t>2.56</t>
         </is>
       </c>
-      <c r="N20" s="2" t="inlineStr">
+      <c r="O20" s="2" t="inlineStr">
         <is>
           <t>0.13</t>
         </is>
       </c>
-      <c r="O20" s="2" t="inlineStr">
+      <c r="P20" s="2" t="inlineStr">
         <is>
           <t>0.44</t>
         </is>
       </c>
-      <c r="P20" s="2" t="inlineStr">
+      <c r="Q20" s="2" t="inlineStr">
         <is>
           <t>0.20</t>
         </is>
       </c>
-      <c r="Q20" s="2" t="inlineStr">
+      <c r="R20" s="2" t="inlineStr">
         <is>
           <t>0.06</t>
         </is>
       </c>
-      <c r="R20" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
           <t>2.50</t>
         </is>
       </c>
-      <c r="T20" s="2" t="inlineStr">
+      <c r="U20" s="2" t="inlineStr">
         <is>
           <t>0.04</t>
         </is>
       </c>
-      <c r="U20" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
           <t>0.00</t>
@@ -3824,10 +3704,15 @@
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="X20" s="2" t="inlineStr">
+        <is>
           <t>3.36</t>
         </is>
       </c>
-      <c r="X20" s="2" t="inlineStr">
+      <c r="Y20" s="2" t="inlineStr">
         <is>
           <t>322.55</t>
         </is>
@@ -3837,100 +3722,96 @@
       <c r="A21" t="n">
         <v>4</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
         <is>
           <t>Rew001_SO-G88-001_FIBER_RUSZT_PAL_2520_ZAMAWIAC_POLOWE</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" s="2" t="inlineStr">
         <is>
           <t>S235</t>
         </is>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" s="2" t="n">
         <v>168</v>
       </c>
-      <c r="F21" s="2" t="inlineStr">
+      <c r="G21" s="2" t="inlineStr">
         <is>
           <t>7.420</t>
         </is>
       </c>
-      <c r="G21" s="2" t="inlineStr">
+      <c r="H21" s="2" t="inlineStr">
         <is>
           <t>8.815</t>
         </is>
       </c>
-      <c r="H21" s="2" t="inlineStr">
+      <c r="I21" s="2" t="inlineStr">
         <is>
           <t>5.00</t>
         </is>
       </c>
-      <c r="I21" s="2" t="n">
+      <c r="J21" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="J21" s="2" t="inlineStr">
+      <c r="K21" s="2" t="inlineStr">
         <is>
           <t>0.12</t>
         </is>
       </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
           <t>3.60</t>
         </is>
       </c>
-      <c r="M21" s="2" t="inlineStr">
+      <c r="N21" s="2" t="inlineStr">
         <is>
           <t>2.56</t>
         </is>
       </c>
-      <c r="N21" s="2" t="inlineStr">
+      <c r="O21" s="2" t="inlineStr">
         <is>
           <t>31.74</t>
         </is>
       </c>
-      <c r="O21" s="2" t="inlineStr">
+      <c r="P21" s="2" t="inlineStr">
         <is>
           <t>12.82</t>
         </is>
       </c>
-      <c r="P21" s="2" t="inlineStr">
+      <c r="Q21" s="2" t="inlineStr">
         <is>
           <t>0.10</t>
         </is>
       </c>
-      <c r="Q21" s="2" t="inlineStr">
+      <c r="R21" s="2" t="inlineStr">
         <is>
           <t>0.08</t>
         </is>
       </c>
-      <c r="R21" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
           <t>2.50</t>
         </is>
       </c>
-      <c r="T21" s="2" t="inlineStr">
+      <c r="U21" s="2" t="inlineStr">
         <is>
           <t>0.04</t>
         </is>
       </c>
-      <c r="U21" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
           <t>0.00</t>
@@ -3938,10 +3819,15 @@
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="X21" s="2" t="inlineStr">
+        <is>
           <t>47.27</t>
         </is>
       </c>
-      <c r="X21" s="2" t="inlineStr">
+      <c r="Y21" s="2" t="inlineStr">
         <is>
           <t>7941.67</t>
         </is>
@@ -3951,100 +3837,96 @@
       <c r="A22" t="n">
         <v>5</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
         <is>
           <t>Rew001_SO-274-002_PROWADNICA_WIDEL_DLUGA</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" s="2" t="inlineStr">
         <is>
           <t>S235</t>
         </is>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="F22" s="2" t="inlineStr">
+      <c r="G22" s="2" t="inlineStr">
         <is>
           <t>7.710</t>
         </is>
       </c>
-      <c r="G22" s="2" t="inlineStr">
+      <c r="H22" s="2" t="inlineStr">
         <is>
           <t>9.160</t>
         </is>
       </c>
-      <c r="H22" s="2" t="inlineStr">
+      <c r="I22" s="2" t="inlineStr">
         <is>
           <t>4.66</t>
         </is>
       </c>
-      <c r="I22" s="2" t="n">
+      <c r="J22" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="J22" s="2" t="inlineStr">
+      <c r="K22" s="2" t="inlineStr">
         <is>
           <t>0.11</t>
         </is>
       </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
           <t>3.60</t>
         </is>
       </c>
-      <c r="M22" s="2" t="inlineStr">
+      <c r="N22" s="2" t="inlineStr">
         <is>
           <t>2.56</t>
         </is>
       </c>
-      <c r="N22" s="2" t="inlineStr">
+      <c r="O22" s="2" t="inlineStr">
         <is>
           <t>32.98</t>
         </is>
       </c>
-      <c r="O22" s="2" t="inlineStr">
+      <c r="P22" s="2" t="inlineStr">
         <is>
           <t>11.95</t>
         </is>
       </c>
-      <c r="P22" s="2" t="inlineStr">
+      <c r="Q22" s="2" t="inlineStr">
         <is>
           <t>0.10</t>
         </is>
       </c>
-      <c r="Q22" s="2" t="inlineStr">
+      <c r="R22" s="2" t="inlineStr">
         <is>
           <t>0.07</t>
         </is>
       </c>
-      <c r="R22" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
           <t>2.50</t>
         </is>
       </c>
-      <c r="T22" s="2" t="inlineStr">
+      <c r="U22" s="2" t="inlineStr">
         <is>
           <t>0.04</t>
         </is>
       </c>
-      <c r="U22" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
           <t>0.00</t>
@@ -4052,10 +3934,15 @@
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="X22" s="2" t="inlineStr">
+        <is>
           <t>47.63</t>
         </is>
       </c>
-      <c r="X22" s="2" t="inlineStr">
+      <c r="Y22" s="2" t="inlineStr">
         <is>
           <t>1143.21</t>
         </is>
@@ -4065,100 +3952,96 @@
       <c r="A23" t="n">
         <v>6</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
         <is>
           <t>Rew001_SO-H02-001_FIBER_PAL_MOC_DASZKA_BOK_HAK</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" s="2" t="inlineStr">
         <is>
           <t>S235</t>
         </is>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" s="2" t="n">
         <v>96</v>
       </c>
-      <c r="F23" s="2" t="inlineStr">
+      <c r="G23" s="2" t="inlineStr">
         <is>
           <t>0.130</t>
         </is>
       </c>
-      <c r="G23" s="2" t="inlineStr">
+      <c r="H23" s="2" t="inlineStr">
         <is>
           <t>0.154</t>
         </is>
       </c>
-      <c r="H23" s="2" t="inlineStr">
+      <c r="I23" s="2" t="inlineStr">
         <is>
           <t>0.40</t>
         </is>
       </c>
-      <c r="I23" s="2" t="n">
+      <c r="J23" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="J23" s="2" t="inlineStr">
+      <c r="K23" s="2" t="inlineStr">
         <is>
           <t>0.12</t>
         </is>
       </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
           <t>3.60</t>
         </is>
       </c>
-      <c r="M23" s="2" t="inlineStr">
+      <c r="N23" s="2" t="inlineStr">
         <is>
           <t>2.56</t>
         </is>
       </c>
-      <c r="N23" s="2" t="inlineStr">
+      <c r="O23" s="2" t="inlineStr">
         <is>
           <t>0.56</t>
         </is>
       </c>
-      <c r="O23" s="2" t="inlineStr">
+      <c r="P23" s="2" t="inlineStr">
         <is>
           <t>1.03</t>
         </is>
       </c>
-      <c r="P23" s="2" t="inlineStr">
+      <c r="Q23" s="2" t="inlineStr">
         <is>
           <t>0.10</t>
         </is>
       </c>
-      <c r="Q23" s="2" t="inlineStr">
+      <c r="R23" s="2" t="inlineStr">
         <is>
           <t>0.08</t>
         </is>
       </c>
-      <c r="R23" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
           <t>2.50</t>
         </is>
       </c>
-      <c r="T23" s="2" t="inlineStr">
+      <c r="U23" s="2" t="inlineStr">
         <is>
           <t>0.04</t>
         </is>
       </c>
-      <c r="U23" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
           <t>0.00</t>
@@ -4166,10 +4049,15 @@
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="X23" s="2" t="inlineStr">
+        <is>
           <t>4.30</t>
         </is>
       </c>
-      <c r="X23" s="2" t="inlineStr">
+      <c r="Y23" s="2" t="inlineStr">
         <is>
           <t>412.53</t>
         </is>
@@ -4179,100 +4067,96 @@
       <c r="A24" t="n">
         <v>7</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
         <is>
           <t>Rew001_SO-F18-001_WZM_NOGI</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" s="2" t="inlineStr">
         <is>
           <t>S235</t>
         </is>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="F24" s="2" t="inlineStr">
+      <c r="G24" s="2" t="inlineStr">
         <is>
           <t>0.230</t>
         </is>
       </c>
-      <c r="G24" s="2" t="inlineStr">
+      <c r="H24" s="2" t="inlineStr">
         <is>
           <t>0.273</t>
         </is>
       </c>
-      <c r="H24" s="2" t="inlineStr">
+      <c r="I24" s="2" t="inlineStr">
         <is>
           <t>0.44</t>
         </is>
       </c>
-      <c r="I24" s="2" t="n">
+      <c r="J24" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="J24" s="2" t="inlineStr">
+      <c r="K24" s="2" t="inlineStr">
         <is>
           <t>0.12</t>
         </is>
       </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
           <t>3.60</t>
         </is>
       </c>
-      <c r="M24" s="2" t="inlineStr">
+      <c r="N24" s="2" t="inlineStr">
         <is>
           <t>2.56</t>
         </is>
       </c>
-      <c r="N24" s="2" t="inlineStr">
+      <c r="O24" s="2" t="inlineStr">
         <is>
           <t>0.98</t>
         </is>
       </c>
-      <c r="O24" s="2" t="inlineStr">
+      <c r="P24" s="2" t="inlineStr">
         <is>
           <t>1.13</t>
         </is>
       </c>
-      <c r="P24" s="2" t="inlineStr">
+      <c r="Q24" s="2" t="inlineStr">
         <is>
           <t>0.20</t>
         </is>
       </c>
-      <c r="Q24" s="2" t="inlineStr">
+      <c r="R24" s="2" t="inlineStr">
         <is>
           <t>0.08</t>
         </is>
       </c>
-      <c r="R24" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
           <t>2.50</t>
         </is>
       </c>
-      <c r="T24" s="2" t="inlineStr">
+      <c r="U24" s="2" t="inlineStr">
         <is>
           <t>0.04</t>
         </is>
       </c>
-      <c r="U24" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
           <t>0.00</t>
@@ -4280,10 +4164,15 @@
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="X24" s="2" t="inlineStr">
+        <is>
           <t>4.93</t>
         </is>
       </c>
-      <c r="X24" s="2" t="inlineStr">
+      <c r="Y24" s="2" t="inlineStr">
         <is>
           <t>118.26</t>
         </is>
@@ -4293,100 +4182,96 @@
       <c r="A25" t="n">
         <v>8</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
         <is>
           <t>Rew001_SO-G82-001_FIBER_PAL_ZASLEPKA_WZM_BOKU</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" s="2" t="inlineStr">
         <is>
           <t>S235</t>
         </is>
       </c>
-      <c r="D25" t="n">
+      <c r="E25" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="F25" s="2" t="inlineStr">
+      <c r="G25" s="2" t="inlineStr">
         <is>
           <t>0.400</t>
         </is>
       </c>
-      <c r="G25" s="2" t="inlineStr">
+      <c r="H25" s="2" t="inlineStr">
         <is>
           <t>0.475</t>
         </is>
       </c>
-      <c r="H25" s="2" t="inlineStr">
+      <c r="I25" s="2" t="inlineStr">
         <is>
           <t>0.63</t>
         </is>
       </c>
-      <c r="I25" s="2" t="n">
+      <c r="J25" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="J25" s="2" t="inlineStr">
+      <c r="K25" s="2" t="inlineStr">
         <is>
           <t>0.12</t>
         </is>
       </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
           <t>3.60</t>
         </is>
       </c>
-      <c r="M25" s="2" t="inlineStr">
+      <c r="N25" s="2" t="inlineStr">
         <is>
           <t>2.56</t>
         </is>
       </c>
-      <c r="N25" s="2" t="inlineStr">
+      <c r="O25" s="2" t="inlineStr">
         <is>
           <t>1.71</t>
         </is>
       </c>
-      <c r="O25" s="2" t="inlineStr">
+      <c r="P25" s="2" t="inlineStr">
         <is>
           <t>1.62</t>
         </is>
       </c>
-      <c r="P25" s="2" t="inlineStr">
+      <c r="Q25" s="2" t="inlineStr">
         <is>
           <t>0.20</t>
         </is>
       </c>
-      <c r="Q25" s="2" t="inlineStr">
+      <c r="R25" s="2" t="inlineStr">
         <is>
           <t>0.08</t>
         </is>
       </c>
-      <c r="R25" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="T25" s="2" t="inlineStr">
+        <is>
           <t>2.50</t>
         </is>
       </c>
-      <c r="T25" s="2" t="inlineStr">
+      <c r="U25" s="2" t="inlineStr">
         <is>
           <t>0.04</t>
         </is>
       </c>
-      <c r="U25" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
           <t>0.00</t>
@@ -4394,10 +4279,15 @@
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="X25" s="2" t="inlineStr">
+        <is>
           <t>6.14</t>
         </is>
       </c>
-      <c r="X25" s="2" t="inlineStr">
+      <c r="Y25" s="2" t="inlineStr">
         <is>
           <t>147.40</t>
         </is>
@@ -4407,100 +4297,96 @@
       <c r="A26" t="n">
         <v>1</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
         <is>
           <t>Rew001_SO-G97-001_FIBER_PAL_BAZA_MOC_GRZEB_BOK</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" s="2" t="inlineStr">
         <is>
           <t>S235</t>
         </is>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="F26" s="2" t="inlineStr">
+      <c r="G26" s="2" t="inlineStr">
         <is>
           <t>0.180</t>
         </is>
       </c>
-      <c r="G26" s="2" t="inlineStr">
+      <c r="H26" s="2" t="inlineStr">
         <is>
           <t>0.201</t>
         </is>
       </c>
-      <c r="H26" s="2" t="inlineStr">
+      <c r="I26" s="2" t="inlineStr">
         <is>
           <t>0.40</t>
         </is>
       </c>
-      <c r="I26" s="2" t="n">
+      <c r="J26" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="J26" s="2" t="inlineStr">
+      <c r="K26" s="2" t="inlineStr">
         <is>
           <t>0.10</t>
         </is>
       </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
           <t>3.60</t>
         </is>
       </c>
-      <c r="M26" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
           <t>0.72</t>
         </is>
       </c>
-      <c r="O26" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
           <t>0.30</t>
         </is>
       </c>
-      <c r="Q26" s="2" t="inlineStr">
+      <c r="R26" s="2" t="inlineStr">
         <is>
           <t>0.07</t>
         </is>
       </c>
-      <c r="R26" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="T26" s="2" t="inlineStr">
+        <is>
           <t>2.50</t>
         </is>
       </c>
-      <c r="T26" s="2" t="inlineStr">
+      <c r="U26" s="2" t="inlineStr">
         <is>
           <t>0.04</t>
         </is>
       </c>
-      <c r="U26" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
           <t>0.00</t>
@@ -4508,10 +4394,15 @@
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="X26" s="2" t="inlineStr">
+        <is>
           <t>3.63</t>
         </is>
       </c>
-      <c r="X26" s="2" t="inlineStr">
+      <c r="Y26" s="2" t="inlineStr">
         <is>
           <t>130.54</t>
         </is>
@@ -4521,100 +4412,96 @@
       <c r="A27" t="n">
         <v>2</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
         <is>
           <t>Rew001_SO-H04-001_FIBER_PAL_2520_DASZEK_BOK_619</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" s="2" t="inlineStr">
         <is>
           <t>S235</t>
         </is>
       </c>
-      <c r="D27" t="n">
+      <c r="E27" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="F27" s="2" t="inlineStr">
+      <c r="G27" s="2" t="inlineStr">
         <is>
           <t>9.120</t>
         </is>
       </c>
-      <c r="G27" s="2" t="inlineStr">
+      <c r="H27" s="2" t="inlineStr">
         <is>
           <t>10.188</t>
         </is>
       </c>
-      <c r="H27" s="2" t="inlineStr">
+      <c r="I27" s="2" t="inlineStr">
         <is>
           <t>1.98</t>
         </is>
       </c>
-      <c r="I27" s="2" t="n">
+      <c r="J27" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="J27" s="2" t="inlineStr">
+      <c r="K27" s="2" t="inlineStr">
         <is>
           <t>0.12</t>
         </is>
       </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
           <t>3.60</t>
         </is>
       </c>
-      <c r="M27" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="N27" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
           <t>36.68</t>
         </is>
       </c>
-      <c r="O27" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
           <t>0.50</t>
         </is>
       </c>
-      <c r="Q27" s="2" t="inlineStr">
+      <c r="R27" s="2" t="inlineStr">
         <is>
           <t>0.08</t>
         </is>
       </c>
-      <c r="R27" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="T27" s="2" t="inlineStr">
+        <is>
           <t>2.50</t>
         </is>
       </c>
-      <c r="T27" s="2" t="inlineStr">
+      <c r="U27" s="2" t="inlineStr">
         <is>
           <t>0.04</t>
         </is>
       </c>
-      <c r="U27" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="V27" s="2" t="inlineStr">
         <is>
           <t>0.00</t>
@@ -4622,10 +4509,15 @@
       </c>
       <c r="W27" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="X27" s="2" t="inlineStr">
+        <is>
           <t>39.79</t>
         </is>
       </c>
-      <c r="X27" s="2" t="inlineStr">
+      <c r="Y27" s="2" t="inlineStr">
         <is>
           <t>954.99</t>
         </is>
@@ -4635,100 +4527,96 @@
       <c r="A28" t="n">
         <v>3</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
         <is>
           <t>Rew001_SO-H14-001_FIBER_DASZEK_TRAPEZ_PAL</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" s="2" t="inlineStr">
         <is>
           <t>S235</t>
         </is>
       </c>
-      <c r="D28" t="n">
+      <c r="E28" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="F28" s="2" t="inlineStr">
+      <c r="G28" s="2" t="inlineStr">
         <is>
           <t>9.570</t>
         </is>
       </c>
-      <c r="G28" s="2" t="inlineStr">
+      <c r="H28" s="2" t="inlineStr">
         <is>
           <t>10.690</t>
         </is>
       </c>
-      <c r="H28" s="2" t="inlineStr">
+      <c r="I28" s="2" t="inlineStr">
         <is>
           <t>1.63</t>
         </is>
       </c>
-      <c r="I28" s="2" t="n">
+      <c r="J28" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="J28" s="2" t="inlineStr">
+      <c r="K28" s="2" t="inlineStr">
         <is>
           <t>0.12</t>
         </is>
       </c>
-      <c r="K28" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
           <t>3.60</t>
         </is>
       </c>
-      <c r="M28" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
           <t>38.49</t>
         </is>
       </c>
-      <c r="O28" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
           <t>0.10</t>
         </is>
       </c>
-      <c r="Q28" s="2" t="inlineStr">
+      <c r="R28" s="2" t="inlineStr">
         <is>
           <t>0.08</t>
         </is>
       </c>
-      <c r="R28" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="T28" s="2" t="inlineStr">
+        <is>
           <t>2.50</t>
         </is>
       </c>
-      <c r="T28" s="2" t="inlineStr">
+      <c r="U28" s="2" t="inlineStr">
         <is>
           <t>0.04</t>
         </is>
       </c>
-      <c r="U28" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
           <t>0.00</t>
@@ -4736,10 +4624,15 @@
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="X28" s="2" t="inlineStr">
+        <is>
           <t>41.20</t>
         </is>
       </c>
-      <c r="X28" s="2" t="inlineStr">
+      <c r="Y28" s="2" t="inlineStr">
         <is>
           <t>1977.64</t>
         </is>
@@ -4749,100 +4642,96 @@
       <c r="A29" t="n">
         <v>4</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
         <is>
           <t>Rew001_SO-H08-001_FIBER_PAL_WANNA_WZMOC</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" s="2" t="inlineStr">
         <is>
           <t>S235</t>
         </is>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="F29" s="2" t="inlineStr">
+      <c r="G29" s="2" t="inlineStr">
         <is>
           <t>1.700</t>
         </is>
       </c>
-      <c r="G29" s="2" t="inlineStr">
+      <c r="H29" s="2" t="inlineStr">
         <is>
           <t>1.899</t>
         </is>
       </c>
-      <c r="H29" s="2" t="inlineStr">
+      <c r="I29" s="2" t="inlineStr">
         <is>
           <t>1.24</t>
         </is>
       </c>
-      <c r="I29" s="2" t="n">
+      <c r="J29" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="J29" s="2" t="inlineStr">
+      <c r="K29" s="2" t="inlineStr">
         <is>
           <t>0.12</t>
         </is>
       </c>
-      <c r="K29" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
           <t>3.60</t>
         </is>
       </c>
-      <c r="M29" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
           <t>6.84</t>
         </is>
       </c>
-      <c r="O29" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
           <t>0.30</t>
         </is>
       </c>
-      <c r="Q29" s="2" t="inlineStr">
+      <c r="R29" s="2" t="inlineStr">
         <is>
           <t>0.08</t>
         </is>
       </c>
-      <c r="R29" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="T29" s="2" t="inlineStr">
+        <is>
           <t>2.50</t>
         </is>
       </c>
-      <c r="T29" s="2" t="inlineStr">
+      <c r="U29" s="2" t="inlineStr">
         <is>
           <t>0.04</t>
         </is>
       </c>
-      <c r="U29" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
           <t>0.00</t>
@@ -4850,10 +4739,15 @@
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="X29" s="2" t="inlineStr">
+        <is>
           <t>9.75</t>
         </is>
       </c>
-      <c r="X29" s="2" t="inlineStr">
+      <c r="Y29" s="2" t="inlineStr">
         <is>
           <t>702.14</t>
         </is>
@@ -4863,100 +4757,96 @@
       <c r="A30" t="n">
         <v>5</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
         <is>
           <t>Rew001_SO-G98-001_FIBER_PAL_BAZA_POZ_Y</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" s="2" t="inlineStr">
         <is>
           <t>S235</t>
         </is>
       </c>
-      <c r="D30" t="n">
+      <c r="E30" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="F30" s="2" t="inlineStr">
+      <c r="G30" s="2" t="inlineStr">
         <is>
           <t>0.150</t>
         </is>
       </c>
-      <c r="G30" s="2" t="inlineStr">
+      <c r="H30" s="2" t="inlineStr">
         <is>
           <t>0.168</t>
         </is>
       </c>
-      <c r="H30" s="2" t="inlineStr">
+      <c r="I30" s="2" t="inlineStr">
         <is>
           <t>0.30</t>
         </is>
       </c>
-      <c r="I30" s="2" t="n">
+      <c r="J30" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="J30" s="2" t="inlineStr">
+      <c r="K30" s="2" t="inlineStr">
         <is>
           <t>0.12</t>
         </is>
       </c>
-      <c r="K30" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
           <t>3.60</t>
         </is>
       </c>
-      <c r="M30" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
           <t>0.60</t>
         </is>
       </c>
-      <c r="O30" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
           <t>0.20</t>
         </is>
       </c>
-      <c r="Q30" s="2" t="inlineStr">
+      <c r="R30" s="2" t="inlineStr">
         <is>
           <t>0.08</t>
         </is>
       </c>
-      <c r="R30" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="T30" s="2" t="inlineStr">
+        <is>
           <t>2.50</t>
         </is>
       </c>
-      <c r="T30" s="2" t="inlineStr">
+      <c r="U30" s="2" t="inlineStr">
         <is>
           <t>0.04</t>
         </is>
       </c>
-      <c r="U30" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
           <t>0.00</t>
@@ -4964,10 +4854,15 @@
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="X30" s="2" t="inlineStr">
+        <is>
           <t>3.42</t>
         </is>
       </c>
-      <c r="X30" s="2" t="inlineStr">
+      <c r="Y30" s="2" t="inlineStr">
         <is>
           <t>41.03</t>
         </is>
@@ -4977,100 +4872,96 @@
       <c r="A31" t="n">
         <v>6</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
         <is>
           <t>Rew001_SO-G99-001_FIBER_PAL_2520_DASZEK_619</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D31" s="2" t="inlineStr">
         <is>
           <t>S235</t>
         </is>
       </c>
-      <c r="D31" t="n">
+      <c r="E31" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="G31" s="2" t="inlineStr">
         <is>
           <t>15.680</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="H31" s="2" t="inlineStr">
         <is>
           <t>17.516</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
+      <c r="I31" s="2" t="inlineStr">
         <is>
           <t>2.34</t>
         </is>
       </c>
-      <c r="I31" s="2" t="n">
+      <c r="J31" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="J31" s="2" t="inlineStr">
+      <c r="K31" s="2" t="inlineStr">
         <is>
           <t>0.12</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
           <t>3.60</t>
         </is>
       </c>
-      <c r="M31" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
           <t>63.06</t>
         </is>
       </c>
-      <c r="O31" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
           <t>0.50</t>
         </is>
       </c>
-      <c r="Q31" s="2" t="inlineStr">
+      <c r="R31" s="2" t="inlineStr">
         <is>
           <t>0.08</t>
         </is>
       </c>
-      <c r="R31" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="T31" s="2" t="inlineStr">
+        <is>
           <t>2.50</t>
         </is>
       </c>
-      <c r="T31" s="2" t="inlineStr">
+      <c r="U31" s="2" t="inlineStr">
         <is>
           <t>0.04</t>
         </is>
       </c>
-      <c r="U31" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="V31" s="2" t="inlineStr">
         <is>
           <t>0.00</t>
@@ -5078,10 +4969,15 @@
       </c>
       <c r="W31" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="X31" s="2" t="inlineStr">
+        <is>
           <t>66.17</t>
         </is>
       </c>
-      <c r="X31" s="2" t="inlineStr">
+      <c r="Y31" s="2" t="inlineStr">
         <is>
           <t>2382.19</t>
         </is>
@@ -5091,100 +4987,96 @@
       <c r="A32" t="n">
         <v>7</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr">
         <is>
           <t>Rew001_SO-H03-001_FIBER_PAL_2520_DASZEK_BOK_L_P</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="D32" s="2" t="inlineStr">
         <is>
           <t>S235</t>
         </is>
       </c>
-      <c r="D32" t="n">
+      <c r="E32" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="F32" s="2" t="inlineStr">
+      <c r="G32" s="2" t="inlineStr">
         <is>
           <t>9.130</t>
         </is>
       </c>
-      <c r="G32" s="2" t="inlineStr">
+      <c r="H32" s="2" t="inlineStr">
         <is>
           <t>10.199</t>
         </is>
       </c>
-      <c r="H32" s="2" t="inlineStr">
+      <c r="I32" s="2" t="inlineStr">
         <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="I32" s="2" t="n">
+      <c r="J32" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="J32" s="2" t="inlineStr">
+      <c r="K32" s="2" t="inlineStr">
         <is>
           <t>0.12</t>
         </is>
       </c>
-      <c r="K32" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
           <t>3.60</t>
         </is>
       </c>
-      <c r="M32" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="N32" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="O32" s="2" t="inlineStr">
+        <is>
           <t>36.72</t>
         </is>
       </c>
-      <c r="O32" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Q32" s="2" t="inlineStr">
+        <is>
           <t>0.50</t>
         </is>
       </c>
-      <c r="Q32" s="2" t="inlineStr">
+      <c r="R32" s="2" t="inlineStr">
         <is>
           <t>0.08</t>
         </is>
       </c>
-      <c r="R32" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="T32" s="2" t="inlineStr">
+        <is>
           <t>2.50</t>
         </is>
       </c>
-      <c r="T32" s="2" t="inlineStr">
+      <c r="U32" s="2" t="inlineStr">
         <is>
           <t>0.04</t>
         </is>
       </c>
-      <c r="U32" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
           <t>0.00</t>
@@ -5192,10 +5084,15 @@
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="X32" s="2" t="inlineStr">
+        <is>
           <t>39.83</t>
         </is>
       </c>
-      <c r="X32" s="2" t="inlineStr">
+      <c r="Y32" s="2" t="inlineStr">
         <is>
           <t>955.95</t>
         </is>
@@ -5205,100 +5102,96 @@
       <c r="A33" t="n">
         <v>8</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr">
         <is>
           <t>Rew001_SO-H05-001_PAL_2520FIB_DASZEK_650</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="D33" s="2" t="inlineStr">
         <is>
           <t>S235</t>
         </is>
       </c>
-      <c r="D33" t="n">
+      <c r="E33" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="F33" s="2" t="inlineStr">
+      <c r="G33" s="2" t="inlineStr">
         <is>
           <t>15.510</t>
         </is>
       </c>
-      <c r="G33" s="2" t="inlineStr">
+      <c r="H33" s="2" t="inlineStr">
         <is>
           <t>17.326</t>
         </is>
       </c>
-      <c r="H33" s="2" t="inlineStr">
+      <c r="I33" s="2" t="inlineStr">
         <is>
           <t>2.29</t>
         </is>
       </c>
-      <c r="I33" s="2" t="n">
+      <c r="J33" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="J33" s="2" t="inlineStr">
+      <c r="K33" s="2" t="inlineStr">
         <is>
           <t>0.12</t>
         </is>
       </c>
-      <c r="K33" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
           <t>3.60</t>
         </is>
       </c>
-      <c r="M33" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="N33" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="O33" s="2" t="inlineStr">
+        <is>
           <t>62.37</t>
         </is>
       </c>
-      <c r="O33" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Q33" s="2" t="inlineStr">
+        <is>
           <t>0.50</t>
         </is>
       </c>
-      <c r="Q33" s="2" t="inlineStr">
+      <c r="R33" s="2" t="inlineStr">
         <is>
           <t>0.08</t>
         </is>
       </c>
-      <c r="R33" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="T33" s="2" t="inlineStr">
+        <is>
           <t>2.50</t>
         </is>
       </c>
-      <c r="T33" s="2" t="inlineStr">
+      <c r="U33" s="2" t="inlineStr">
         <is>
           <t>0.04</t>
         </is>
       </c>
-      <c r="U33" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="V33" s="2" t="inlineStr">
         <is>
           <t>0.00</t>
@@ -5306,10 +5199,15 @@
       </c>
       <c r="W33" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="X33" s="2" t="inlineStr">
+        <is>
           <t>65.49</t>
         </is>
       </c>
-      <c r="X33" s="2" t="inlineStr">
+      <c r="Y33" s="2" t="inlineStr">
         <is>
           <t>2357.57</t>
         </is>
@@ -5319,100 +5217,96 @@
       <c r="A34" t="n">
         <v>9</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr">
         <is>
           <t>Rew001_SO-G94-001_FIBER_PAL_BAZA_MOC_GRZEB</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="D34" s="2" t="inlineStr">
         <is>
           <t>S235</t>
         </is>
       </c>
-      <c r="D34" t="n">
+      <c r="E34" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="F34" s="2" t="inlineStr">
+      <c r="G34" s="2" t="inlineStr">
         <is>
           <t>0.310</t>
         </is>
       </c>
-      <c r="G34" s="2" t="inlineStr">
+      <c r="H34" s="2" t="inlineStr">
         <is>
           <t>0.346</t>
         </is>
       </c>
-      <c r="H34" s="2" t="inlineStr">
+      <c r="I34" s="2" t="inlineStr">
         <is>
           <t>0.61</t>
         </is>
       </c>
-      <c r="I34" s="2" t="n">
+      <c r="J34" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="J34" s="2" t="inlineStr">
+      <c r="K34" s="2" t="inlineStr">
         <is>
           <t>0.10</t>
         </is>
       </c>
-      <c r="K34" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
           <t>3.60</t>
         </is>
       </c>
-      <c r="M34" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="N34" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="O34" s="2" t="inlineStr">
+        <is>
           <t>1.25</t>
         </is>
       </c>
-      <c r="O34" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Q34" s="2" t="inlineStr">
+        <is>
           <t>0.40</t>
         </is>
       </c>
-      <c r="Q34" s="2" t="inlineStr">
+      <c r="R34" s="2" t="inlineStr">
         <is>
           <t>0.07</t>
         </is>
       </c>
-      <c r="R34" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="T34" s="2" t="inlineStr">
+        <is>
           <t>2.50</t>
         </is>
       </c>
-      <c r="T34" s="2" t="inlineStr">
+      <c r="U34" s="2" t="inlineStr">
         <is>
           <t>0.04</t>
         </is>
       </c>
-      <c r="U34" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
           <t>0.00</t>
@@ -5420,22 +5314,27 @@
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="X34" s="2" t="inlineStr">
+        <is>
           <t>4.25</t>
         </is>
       </c>
-      <c r="X34" s="2" t="inlineStr">
+      <c r="Y34" s="2" t="inlineStr">
         <is>
           <t>229.45</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="B35" s="3" t="inlineStr">
+      <c r="C35" s="3" t="inlineStr">
         <is>
           <t>SUMA CAŁKOWITA</t>
         </is>
       </c>
-      <c r="X35" s="3" t="inlineStr">
+      <c r="Y35" s="3" t="inlineStr">
         <is>
           <t>46794.95</t>
         </is>
@@ -5453,1471 +5352,40 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="28" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="2" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="inlineStr">
         <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B1" s="4" t="inlineStr">
-        <is>
-          <t>Nazwa</t>
-        </is>
-      </c>
-      <c r="C1" s="4" t="inlineStr">
-        <is>
-          <t>Materiał</t>
-        </is>
-      </c>
-      <c r="D1" s="4" t="inlineStr">
-        <is>
-          <t>Grubość</t>
-        </is>
-      </c>
-      <c r="E1" s="4" t="inlineStr">
-        <is>
-          <t>Ilość</t>
-        </is>
-      </c>
-      <c r="F1" s="4" t="inlineStr">
-        <is>
-          <t>Koszt jednostkowy</t>
-        </is>
-      </c>
-      <c r="G1" s="4" t="inlineStr">
-        <is>
-          <t>Gięcie (75%)</t>
-        </is>
-      </c>
-      <c r="H1" s="4" t="inlineStr">
-        <is>
-          <t>Dodatkowe</t>
-        </is>
-      </c>
-      <c r="I1" s="4" t="inlineStr">
-        <is>
-          <t>Koszt całkowity</t>
+          <t>ANALIZA FINANSOWA ZLECENIA</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Rew001_SO-B32-001_SRODEK_I_2500</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>S235</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="E2" t="n">
-        <v>48</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>34.91</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>1675.68</t>
-        </is>
-      </c>
-    </row>
+    <row r="2"/>
     <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Rew001_SO-036-002_KANAL_SCIANA_OKNO_ZASLEPKA</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>S235</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="E3" t="n">
-        <v>48</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.57</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>315.36</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Rew001_SO-G68-001_FIBER_DNO_2520</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>S235</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="E4" t="n">
-        <v>12</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>146.25</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>1755.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Rew001_SO-H16-001_FIBER_BOK_Z_OKNAMI_2000_PALETA</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>S235</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>12</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>51.46</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>617.52</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Rew003_SO-031-001_BOK_OKNO_ZASLEPKA</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>S235</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="n">
-        <v>48</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>12.61</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>605.28</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>1</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Rew001_SO-G95-001_FIBER_GRZEBIEN_PAL_2520</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>S235</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>10</v>
-      </c>
-      <c r="E7" t="n">
-        <v>36</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>83.00</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>2988.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Rew001_SO-G81-001_FIBER_PAL_RAMA_POZYCJONER_Y_II</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>S235</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>10</v>
-      </c>
-      <c r="E8" t="n">
-        <v>24</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.73</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>137.52</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>3</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Rew001_SO-G72-001_FIBER_PAL_RAMA_GRZEB_BOK</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>S235</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>10</v>
-      </c>
-      <c r="E9" t="n">
-        <v>12</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>247.63</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>2971.56</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>4</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Rew001_SO-G77-001_FIBER_PAL_NOGA_SRODKOWA</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>S235</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>10</v>
-      </c>
-      <c r="E10" t="n">
-        <v>12</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>8.86</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>106.32</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>5</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Rew001_SO-G75-002_FIBER_PAL_RAMA_POZ_Y_HAK</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>S235</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>10</v>
-      </c>
-      <c r="E11" t="n">
-        <v>24</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>11.89</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>285.36</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Rew004_SO-539-002_KANAL_PALETA</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>S235</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>3</v>
-      </c>
-      <c r="E12" t="n">
-        <v>24</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>176.01</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>4224.24</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>2</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Rew001_SO-G69-001_FIBER_WANNA_2520</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>S235</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>3</v>
-      </c>
-      <c r="E13" t="n">
-        <v>24</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>291.10</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>6986.40</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>3</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Rew001_SO-G76-001_FIBER_PAL_2520_ZAMK_CZOL</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>S235</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>3</v>
-      </c>
-      <c r="E14" t="n">
-        <v>2</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>60.56</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>121.12</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Rew002_SO-413-001_MOCOWANIE_SILOWNIKA</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>S235</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>3</v>
-      </c>
-      <c r="E15" t="n">
-        <v>48</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>5.21</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>250.08</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>5</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Rew001_SO-H09-001_FIBER_PAL_OSL_GRZEB_BOK</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>S235</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>3</v>
-      </c>
-      <c r="E16" t="n">
-        <v>12</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>51.91</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>622.92</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>6</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Rew001_SO-H07-001_FIBER_PAL_DOSZCZ_GORNE</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>S235</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>3</v>
-      </c>
-      <c r="E17" t="n">
-        <v>24</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>17.78</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>426.72</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Rew001_SO-G93-001_FIBER_MOC_DASZKA_SRODEK_PAL</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>S235</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>5</v>
-      </c>
-      <c r="E18" t="n">
-        <v>144</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>5.10</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>734.40</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>2</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Rew001_SO-H15-001_FIBER_PAL_2520_DNO_WANNY_5</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>S235</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>5</v>
-      </c>
-      <c r="E19" t="n">
-        <v>48</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>44.90</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>2155.20</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>3</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Rew001_SO-H04-001_FIBER_PAL_MOC_DASZKA_BOK_GNIAZDO</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>S235</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>5</v>
-      </c>
-      <c r="E20" t="n">
-        <v>96</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>322.56</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>4</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Rew001_SO-G88-001_FIBER_RUSZT_PAL_2520_ZAMAWIAC_POLOWE</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>S235</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>5</v>
-      </c>
-      <c r="E21" t="n">
-        <v>168</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>47.28</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>7943.04</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>5</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Rew001_SO-274-002_PROWADNICA_WIDEL_DLUGA</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>S235</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>5</v>
-      </c>
-      <c r="E22" t="n">
-        <v>24</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>47.64</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>1143.36</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>6</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Rew001_SO-H02-001_FIBER_PAL_MOC_DASZKA_BOK_HAK</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>S235</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>5</v>
-      </c>
-      <c r="E23" t="n">
-        <v>96</v>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>412.80</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>7</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Rew001_SO-F18-001_WZM_NOGI</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>S235</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>5</v>
-      </c>
-      <c r="E24" t="n">
-        <v>24</v>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>118.32</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>8</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Rew001_SO-G82-001_FIBER_PAL_ZASLEPKA_WZM_BOKU</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>S235</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>5</v>
-      </c>
-      <c r="E25" t="n">
-        <v>24</v>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>6.15</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>147.60</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>1</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Rew001_SO-G97-001_FIBER_PAL_BAZA_MOC_GRZEB_BOK</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>S235</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>8</v>
-      </c>
-      <c r="E26" t="n">
-        <v>36</v>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>130.68</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>2</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Rew001_SO-H04-001_FIBER_PAL_2520_DASZEK_BOK_619</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>S235</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>8</v>
-      </c>
-      <c r="E27" t="n">
-        <v>24</v>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>39.79</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>954.96</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>3</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Rew001_SO-H14-001_FIBER_DASZEK_TRAPEZ_PAL</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>S235</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>8</v>
-      </c>
-      <c r="E28" t="n">
-        <v>48</v>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>41.20</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>1977.60</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>4</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Rew001_SO-H08-001_FIBER_PAL_WANNA_WZMOC</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>S235</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>8</v>
-      </c>
-      <c r="E29" t="n">
-        <v>72</v>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>9.76</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>702.72</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>5</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Rew001_SO-G98-001_FIBER_PAL_BAZA_POZ_Y</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>S235</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>8</v>
-      </c>
-      <c r="E30" t="n">
-        <v>12</v>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>41.04</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>6</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Rew001_SO-G99-001_FIBER_PAL_2520_DASZEK_619</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>S235</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>8</v>
-      </c>
-      <c r="E31" t="n">
-        <v>36</v>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>66.18</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>2382.48</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>7</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Rew001_SO-H03-001_FIBER_PAL_2520_DASZEK_BOK_L_P</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>S235</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>8</v>
-      </c>
-      <c r="E32" t="n">
-        <v>24</v>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>39.84</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>956.16</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>8</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Rew001_SO-H05-001_PAL_2520FIB_DASZEK_650</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>S235</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>8</v>
-      </c>
-      <c r="E33" t="n">
-        <v>36</v>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>65.49</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>2357.64</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>9</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Rew001_SO-G94-001_FIBER_PAL_BAZA_MOC_GRZEB</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>S235</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>8</v>
-      </c>
-      <c r="E34" t="n">
-        <v>54</v>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>229.50</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr"/>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" s="3" t="inlineStr">
-        <is>
-          <t>SUMA</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" s="3" t="inlineStr">
-        <is>
-          <t>46799.14</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="5" t="inlineStr">
-        <is>
-          <t>ANALIZA FINANSOWA ZLECENIA</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="5" t="inlineStr">
         <is>
           <t>Składnik kosztów</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>Wartość [PLN]</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>Udział [%]</t>
         </is>
@@ -6929,15 +5397,11 @@
           <t>Materiał</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>34639.60</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>74.0%</t>
-        </is>
+      <c r="B4" t="n">
+        <v>34639.6</v>
+      </c>
+      <c r="C4" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="5">
@@ -6946,15 +5410,11 @@
           <t>Cięcie laserowe</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>7781.07</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>16.6%</t>
-        </is>
+      <c r="B5" t="n">
+        <v>7781.07</v>
+      </c>
+      <c r="C5" t="n">
+        <v>16.6</v>
       </c>
     </row>
     <row r="6">
@@ -6963,15 +5423,11 @@
           <t>Kontury</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>788.60</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
+      <c r="B6" t="n">
+        <v>788.6</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.7</v>
       </c>
     </row>
     <row r="7">
@@ -6980,390 +5436,100 @@
           <t>Znakowanie</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>95.67</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
+      <c r="B7" t="n">
+        <v>95.67</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Odfoliowanie</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
+          <t>Koszty operacyjne</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3440</v>
+      </c>
+      <c r="C8" t="n">
+        <v>7.4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Koszty operacyjne</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>3440.00</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>7.4%</t>
-        </is>
+          <t>Technologia</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>50</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Technologia</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>50.00</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Gięcie</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Koszty dodatkowe</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>RAZEM</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>46794.95</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="inlineStr">
-        <is>
-          <t>RAZEM</t>
-        </is>
-      </c>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>46794.95</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="inlineStr">
-        <is>
-          <t>100.0%</t>
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>WYNIK FINANSOWY</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="6" t="inlineStr">
-        <is>
-          <t>WYNIK FINANSOWY</t>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Koszty całkowite:</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>46794.95 PLN</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Koszty całkowite:</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>46794.95 PLN</t>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Cena dla klienta:</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>50000.00 PLN</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Cena dla klienta:</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>49226.36 PLN</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>Marża:</t>
         </is>
       </c>
-      <c r="B32" s="7" t="inlineStr">
-        <is>
-          <t>2431.41 PLN (5.2%)</t>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>3205.05 PLN (6.8%)</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="6" t="inlineStr">
-        <is>
-          <t>WYKORZYSTANIE MATERIAŁÓW</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="8" t="inlineStr">
-        <is>
-          <t>Materiał</t>
-        </is>
-      </c>
-      <c r="B3" s="8" t="inlineStr">
-        <is>
-          <t>Grubość [mm]</t>
-        </is>
-      </c>
-      <c r="C3" s="8" t="inlineStr">
-        <is>
-          <t>Waga [kg]</t>
-        </is>
-      </c>
-      <c r="D3" s="8" t="inlineStr">
-        <is>
-          <t>Długość cięcia [m]</t>
-        </is>
-      </c>
-      <c r="E3" s="8" t="inlineStr">
-        <is>
-          <t>Ilość części</t>
-        </is>
-      </c>
-      <c r="F3" s="8" t="inlineStr">
-        <is>
-          <t>Koszt [PLN]</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>S235</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>841.32</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>318.00</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>108</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3746.04</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>S235</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>196.54</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>239.52</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>60</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1222.80</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>S235</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>10</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1242.49</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>412.80</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>108</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6488.76</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>S235</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>3</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2658.11</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1069.36</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>134</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>12631.48</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>S235</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>5</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2262.28</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1218.48</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>624</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>12977.28</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>S235</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2421.38</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>480.66</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>342</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>9732.78</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>